--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.509</v>
+        <v>-0.177</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.446</v>
+        <v>28.242</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.202</v>
+        <v>-0.001</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.4</v>
+        <v>27.329</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.607</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.088</v>
+        <v>27.508</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.83945892822448</v>
+        <v>29.94914553322829</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>23.78870069917017</v>
+        <v>29.94914556355296</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.31080349201214</v>
+        <v>29.9491455756293</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.843040165833381</v>
+        <v>29.94914553595968</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.54100938621341</v>
+        <v>29.94914557187876</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>30.79959256505919</v>
+        <v>29.94914558253273</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>9.723781926573515</v>
+        <v>29.94914553997856</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>40.55478966196713</v>
+        <v>29.94914557777477</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>46.08579487508793</v>
+        <v>29.94914558865862</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35.50505439731071</v>
+        <v>29.94914558648899</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>40.2683439888706</v>
+        <v>29.94914559954098</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>43.05177963994037</v>
+        <v>29.94914560403194</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>19.88032370869281</v>
+        <v>29.94914556165862</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>32.15449962255076</v>
+        <v>29.94914559327888</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.75232034130679</v>
+        <v>29.94914560480342</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>19.18491864524465</v>
+        <v>29.94914559462699</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33.0866143741618</v>
+        <v>29.94914563149821</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.28103746043735</v>
+        <v>29.9491456441589</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.438918837195076</v>
+        <v>29.94914559496203</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.74755384589106</v>
+        <v>29.9491456352775</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.88416122933662</v>
+        <v>29.94914564785525</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.60582604461221</v>
+        <v>29.94914560446509</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>37.19528907167787</v>
+        <v>29.94914564832168</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.54157174121896</v>
+        <v>29.94914555042758</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.8348217160241</v>
+        <v>29.94914558282728</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35.6152034553085</v>
+        <v>29.94914559468598</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>11.5692120183494</v>
+        <v>29.94914555499932</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.20469429791461</v>
+        <v>29.94914559352979</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>40.05421530111628</v>
+        <v>29.94914560408895</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>14.92576513320011</v>
+        <v>29.94914556025149</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>50.61329431516309</v>
+        <v>29.94914560051911</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>55.23168931739423</v>
+        <v>29.94914561118007</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>49.56143980384725</v>
+        <v>29.94914560920991</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>54.2674905551121</v>
+        <v>29.94914562245677</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>57.23643460073566</v>
+        <v>29.94914562703114</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.90819714904371</v>
+        <v>29.94914558178458</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>46.42061970305465</v>
+        <v>29.94914561568337</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>55.80125346709534</v>
+        <v>29.94914562663726</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.50617383072975</v>
+        <v>29.9491456172826</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>40.33630511479254</v>
+        <v>29.94914565662233</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>44.02721522335074</v>
+        <v>29.94914566906191</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.2334621399594</v>
+        <v>29.94914561957696</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35.26661397837676</v>
+        <v>29.94914566297813</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>40.02870795136972</v>
+        <v>29.94914567550721</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>13.32839767132997</v>
+        <v>29.949145630684</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>51.66618930732414</v>
+        <v>29.94914567750158</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.25199072559399</v>
+        <v>29.94914555314967</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>31.13715595908782</v>
+        <v>29.94914558553837</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>38.03840185389436</v>
+        <v>29.94914559729708</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14.86521128936012</v>
+        <v>29.94914555833629</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>40.19432837117408</v>
+        <v>29.94914559684249</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>44.22242763579019</v>
+        <v>29.94914560738317</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>18.34734165614058</v>
+        <v>29.94914556363482</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>54.64665151796591</v>
+        <v>29.94914560385968</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>59.42690452961106</v>
+        <v>29.94914561443577</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>54.18263699766837</v>
+        <v>29.94914561247912</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>58.71432486161087</v>
+        <v>29.94914562560022</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>61.97307781784098</v>
+        <v>29.94914563019492</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31.95162286587967</v>
+        <v>29.94914558472845</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>50.43493019848253</v>
+        <v>29.94914561883558</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>59.82346557952733</v>
+        <v>29.94914562961994</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.82710251400546</v>
+        <v>29.94914562009003</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>43.30912419450803</v>
+        <v>29.94914565940831</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>47.2000699271474</v>
+        <v>29.94914567176824</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>16.23773882826969</v>
+        <v>29.94914562299318</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>40.16577176080923</v>
+        <v>29.94914566637748</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>45.12333149405085</v>
+        <v>29.94914567891981</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>17.60803673053614</v>
+        <v>29.94914563413934</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>56.72600590762188</v>
+        <v>29.94914568092634</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-8.361427667847757</v>
+        <v>29.94914554202872</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1.860549307632963</v>
+        <v>29.94914557306296</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>8.993958911761371</v>
+        <v>29.94914558510316</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-16.85827326731771</v>
+        <v>29.94914554673355</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6.324052513288364</v>
+        <v>29.94914558353871</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>10.37843694373235</v>
+        <v>29.94914559440546</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-14.95971455694706</v>
+        <v>29.9491455511207</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>19.49647456339756</v>
+        <v>29.94914558973914</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.53322409890205</v>
+        <v>29.94914560061663</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.37281143842769</v>
+        <v>29.94914559837916</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.1157395505738</v>
+        <v>29.94914561133033</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.98927481251299</v>
+        <v>29.94914561597945</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.7420372321197264</v>
+        <v>29.94914557196151</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>16.56746528128731</v>
+        <v>29.94914560493953</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.43467068282063</v>
+        <v>29.94914561620474</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-5.998847778159386</v>
+        <v>29.94914560529698</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>10.65237123148188</v>
+        <v>29.94914564300868</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>14.59648010065692</v>
+        <v>29.9491456557142</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-19.46306978719129</v>
+        <v>29.94914560767659</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>1.817091908550766</v>
+        <v>29.94914564905794</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6.830466883752935</v>
+        <v>29.94914566198801</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-20.17697739023895</v>
+        <v>29.94914561764751</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>16.65654500051918</v>
+        <v>29.94914566253348</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>43.80165337881617</v>
+        <v>29.9491456605804</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>32.35924773554044</v>
+        <v>29.94914565373456</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>42.13330917233183</v>
+        <v>29.94914567053641</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>47.36632156852432</v>
+        <v>29.9491456754047</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>13.01028979477343</v>
+        <v>29.94914562169081</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>37.05174266389208</v>
+        <v>29.94914566273942</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>44.96942374480465</v>
+        <v>29.94914567461005</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>20.09031914969408</v>
+        <v>29.94914562673767</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>33.69582047670352</v>
+        <v>29.94914566433559</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>41.64859193702411</v>
+        <v>29.94914567716884</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.965067539790192</v>
+        <v>29.94914562811642</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>25.6496298253824</v>
+        <v>29.94914566953954</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>31.04368348622165</v>
+        <v>29.94914568212117</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8.129433067087149</v>
+        <v>29.94914563919079</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>44.26700994450638</v>
+        <v>29.9491456839768</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>53.77309394624331</v>
+        <v>29.94914569619936</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>48.15131377881733</v>
+        <v>29.94914568930974</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>57.13456905062044</v>
+        <v>29.94914570509681</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>65.23918053486047</v>
+        <v>29.94914570896151</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.78998677117724</v>
+        <v>29.94914565499505</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>49.81331055279755</v>
+        <v>29.94914569555483</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>58.5856926879166</v>
+        <v>29.94914570773376</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>57.67320202876543</v>
+        <v>29.94914568951549</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.89619593475899</v>
+        <v>29.94914568203085</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.22950432779711</v>
+        <v>29.9491456987857</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>64.50703850208485</v>
+        <v>29.94914570368084</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>25.28824581356494</v>
+        <v>29.94914564725768</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.60260772679425</v>
+        <v>29.94914569103317</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>62.5267602486775</v>
+        <v>29.94914570231663</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.49564924477306</v>
+        <v>29.94914565075246</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.23085056417143</v>
+        <v>29.94914569089802</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>51.37939212937559</v>
+        <v>29.94914570339185</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>15.86717885179364</v>
+        <v>29.94914565414521</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.7340855682523</v>
+        <v>29.94914569874441</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>47.4818609262102</v>
+        <v>29.94914571122069</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>20.12701352303524</v>
+        <v>29.94914566681549</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.37590613918513</v>
+        <v>29.94914571466161</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>70.77158459676379</v>
+        <v>29.94914572649913</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>69.58418754043547</v>
+        <v>29.94914571894266</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>78.13002902897998</v>
+        <v>29.94914573467918</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>86.2183868246955</v>
+        <v>29.94914573855127</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.03815667246731</v>
+        <v>29.94914568204997</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.24701281867118</v>
+        <v>29.94914572525139</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>80.03537326740235</v>
+        <v>29.94914573670628</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>62.97170616631097</v>
+        <v>29.94914569286354</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>55.02941138611029</v>
+        <v>29.94914568522907</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>64.17108216493816</v>
+        <v>29.9491457017864</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>69.72284314174399</v>
+        <v>29.94914570669248</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.18006953271929</v>
+        <v>29.94914565024909</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>60.63487401633901</v>
+        <v>29.94914569420822</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>67.60715996758283</v>
+        <v>29.94914570531037</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.57986543150857</v>
+        <v>29.94914565362626</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>48.0534185722786</v>
+        <v>29.94914569381009</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>55.3153123530411</v>
+        <v>29.94914570617779</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>20.68879516139561</v>
+        <v>29.94914565766174</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>48.57384844255946</v>
+        <v>29.94914570229541</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>53.42858907694526</v>
+        <v>29.94914571474755</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>25.25964056883295</v>
+        <v>29.94914567036448</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.3832239755957</v>
+        <v>29.94914571822786</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>76.87630656391084</v>
+        <v>29.94914572993632</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>75.70462391039557</v>
+        <v>29.94914572225702</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>84.1178767905508</v>
+        <v>29.94914573780493</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>92.42037483420924</v>
+        <v>29.94914574167859</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>37.86649540255957</v>
+        <v>29.94914568511488</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>78.24432493572358</v>
+        <v>29.94914572856092</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>86.09829812536329</v>
+        <v>29.94914573978627</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>23.04037168653768</v>
+        <v>29.94914567484302</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>16.28688544042653</v>
+        <v>29.9491456671822</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>25.92755589654795</v>
+        <v>29.94914568373455</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.21698369799285</v>
+        <v>29.94914568875909</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-6.25079612822408</v>
+        <v>29.9491456338365</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.23951033063965</v>
+        <v>29.9491456764288</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.55152939760423</v>
+        <v>29.94914568800634</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-3.118479961266425</v>
+        <v>29.9491456387915</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>13.36429035803677</v>
+        <v>29.94914567742252</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.96608340139212</v>
+        <v>29.94914569015003</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-16.87367906349835</v>
+        <v>29.94914564233398</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>8.148577975514501</v>
+        <v>29.94914568501727</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>13.24579374715381</v>
+        <v>29.9491456978194</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-14.44098842208389</v>
+        <v>29.94914565391642</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.24330350978182</v>
+        <v>29.94914569991514</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>35.25189733875042</v>
+        <v>29.94914571200606</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>34.83660011935826</v>
+        <v>29.94914570441828</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>43.66236993817594</v>
+        <v>29.94914571996171</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>51.84515415844641</v>
+        <v>29.94914572392245</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>0.2275531666505908</v>
+        <v>29.94914566858428</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>37.74833748888678</v>
+        <v>29.94914571085784</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>45.98412431380201</v>
+        <v>29.94914572257462</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.86125516780489</v>
+        <v>29.94914551294811</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.12725202921226</v>
+        <v>29.94914554204021</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.73304324319212</v>
+        <v>29.94914555343012</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.752561024016623</v>
+        <v>29.94914551429626</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.11098715529486</v>
+        <v>29.9491455488782</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.40518709950226</v>
+        <v>29.94914555894666</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.603329879480425</v>
+        <v>29.94914551706484</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.46658102150864</v>
+        <v>29.94914555322938</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>40.62973176446938</v>
+        <v>29.94914556352075</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.56246860324631</v>
+        <v>29.94914556335809</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.48198927677137</v>
+        <v>29.94914557586778</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>38.16522164492228</v>
+        <v>29.94914558000202</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.54646275773186</v>
+        <v>29.94914553888605</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>24.2277922338111</v>
+        <v>29.94914556994656</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.22851777917484</v>
+        <v>29.94914558067118</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.20581857880812</v>
+        <v>29.94914557292593</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>30.12901172392515</v>
+        <v>29.94914560864018</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>34.88960388308472</v>
+        <v>29.94914562059171</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>1.223597018942387</v>
+        <v>29.94914557223544</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>19.29566686788993</v>
+        <v>29.94914561154573</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>25.04717403270809</v>
+        <v>29.94914562348784</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>2.659846522780833</v>
+        <v>29.94914558086166</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>33.79692230489831</v>
+        <v>29.94914562325509</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>15.04361053005</v>
+        <v>29.94914552813522</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>25.45841437765655</v>
+        <v>29.94914555918579</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>31.47247437741954</v>
+        <v>29.94914557041372</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>7.873220342397637</v>
+        <v>29.94914553123192</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.8946617446482</v>
+        <v>29.94914556834247</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.88687406836502</v>
+        <v>29.94914557833046</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>12.11798988945332</v>
+        <v>29.94914553503766</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>44.57773785914759</v>
+        <v>29.94914557353839</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>47.94870593457456</v>
+        <v>29.94914558365052</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>41.30848630898179</v>
+        <v>29.94914558368048</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>47.19764605440236</v>
+        <v>29.94914559637738</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>50.27162724899345</v>
+        <v>29.94914560061681</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.45976062802498</v>
+        <v>29.94914555672423</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.18101556224815</v>
+        <v>29.9491455899895</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.09701996234016</v>
+        <v>29.94914560022269</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>17.47031947590184</v>
+        <v>29.94914559324874</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>35.09293032696209</v>
+        <v>29.94914563130421</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>39.53272255907587</v>
+        <v>29.94914564312126</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>6.771201250595405</v>
+        <v>29.94914559448851</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.34494301092815</v>
+        <v>29.94914563680505</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.81731650418259</v>
+        <v>29.94914564873044</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>8.92902783448783</v>
+        <v>29.94914560448621</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.49665219579625</v>
+        <v>29.94914564969117</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>16.72404938874179</v>
+        <v>29.94914553089862</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.71857560639681</v>
+        <v>29.94914556193581</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.86306343526255</v>
+        <v>29.94914557307236</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>11.12235746959065</v>
+        <v>29.94914553459171</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.83320820949426</v>
+        <v>29.94914557168731</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>39.00128207521804</v>
+        <v>29.94914558164943</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>15.49032416376386</v>
+        <v>29.94914553843663</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.55483841195093</v>
+        <v>29.94914557689396</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.10031330003083</v>
+        <v>29.94914558692437</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>45.7642018342854</v>
+        <v>29.94914558695349</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>51.50273205448925</v>
+        <v>29.94914559952008</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>54.89570189741723</v>
+        <v>29.949145603782</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>23.39618148804367</v>
+        <v>29.94914555967894</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>40.09249163730074</v>
+        <v>29.94914559314053</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.03091087500543</v>
+        <v>29.94914560321888</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>19.61683106969695</v>
+        <v>29.94914559602215</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>37.86395794089272</v>
+        <v>29.94914563405095</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>42.50871083801359</v>
+        <v>29.94914564579616</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>10.57099365463009</v>
+        <v>29.94914559785673</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>35.03407130014923</v>
+        <v>29.94914564016329</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.67979882987017</v>
+        <v>29.94914565208984</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>12.98329400236763</v>
+        <v>29.94914560787264</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.29965656266815</v>
+        <v>29.94914565303888</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-9.740022348181068</v>
+        <v>29.94914552122678</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-0.3413776969506439</v>
+        <v>29.94914555098702</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>5.962882480855367</v>
+        <v>29.94914556234239</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-19.36618715290547</v>
+        <v>29.94914552444382</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>2.290535475334824</v>
+        <v>29.94914555988695</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>6.447819567155066</v>
+        <v>29.94914557013916</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-16.50917653446334</v>
+        <v>29.94914552752364</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>14.76287593439272</v>
+        <v>29.94914556446804</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.48488174981228</v>
+        <v>29.94914557473277</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>12.41810476780209</v>
+        <v>29.94914557453316</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>18.3784861188543</v>
+        <v>29.94914558691914</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.28834460261368</v>
+        <v>29.94914559117453</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-6.492731370899602</v>
+        <v>29.94914554852625</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>7.581692591098307</v>
+        <v>29.94914558087997</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>14.90586531696495</v>
+        <v>29.9491455913607</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-9.65741997459449</v>
+        <v>29.94914558280527</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>6.873542187744752</v>
+        <v>29.94914561930887</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>11.51241366636986</v>
+        <v>29.94914563130071</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-23.41393868594336</v>
+        <v>29.94914558407243</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-1.47718629182467</v>
+        <v>29.94914562441559</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>4.210597663569566</v>
+        <v>29.9491456366686</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-22.9234907661822</v>
+        <v>29.94914559307853</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>12.23475055768493</v>
+        <v>29.94914563643845</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>40.57200293990748</v>
+        <v>29.94914563498962</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.85850169633232</v>
+        <v>29.94914563020463</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.39297781135547</v>
+        <v>29.949145646249</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>44.06239229948493</v>
+        <v>29.94914565084402</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.870333615763231</v>
+        <v>29.94914559866239</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>30.9235027464671</v>
+        <v>29.94914563892885</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.90283532919667</v>
+        <v>29.94914565036767</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>19.16570151086656</v>
+        <v>29.94914560617974</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.97320612378276</v>
+        <v>29.94914564265773</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>41.21969855883742</v>
+        <v>29.94914565486323</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>2.013269447795635</v>
+        <v>29.9491456066823</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>23.7599576245867</v>
+        <v>29.94914564709432</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.07470423555979</v>
+        <v>29.94914565912892</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>6.850413324455768</v>
+        <v>29.94914561712758</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>42.16453940034486</v>
+        <v>29.94914566052318</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>51.19420100508968</v>
+        <v>29.94914567223064</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>44.74249128317303</v>
+        <v>29.94914566748044</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>53.76212701192669</v>
+        <v>29.94914568262008</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>61.77357932048582</v>
+        <v>29.9491456862862</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>14.41217352454979</v>
+        <v>29.94914563340858</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>44.586528508922</v>
+        <v>29.94914567358228</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>51.47207382019003</v>
+        <v>29.94914568516947</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.81858913571691</v>
+        <v>29.94914566125432</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.44895582829004</v>
+        <v>29.94914565586533</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.56256303180356</v>
+        <v>29.94914567187976</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>58.48936214299344</v>
+        <v>29.94914567655007</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>19.34914289456457</v>
+        <v>29.9491456216908</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.50722495247194</v>
+        <v>29.94914566459865</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.59335735246323</v>
+        <v>29.94914567554279</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.71807221814843</v>
+        <v>29.94914562799995</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>42.46951694136071</v>
+        <v>29.94914566689411</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>49.03084109582122</v>
+        <v>29.94914567884877</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>10.90638487777945</v>
+        <v>29.94914563050405</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.62153584934776</v>
+        <v>29.94914567401128</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>43.34009278786432</v>
+        <v>29.94914568596275</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>16.67777735176157</v>
+        <v>29.94914564235284</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>57.81804240354576</v>
+        <v>29.94914568866338</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>65.8340954382205</v>
+        <v>29.94914570005497</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>63.55891191247711</v>
+        <v>29.94914569469717</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>72.10239481280372</v>
+        <v>29.94914570980936</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>80.29571141365072</v>
+        <v>29.94914571350935</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.09121073310046</v>
+        <v>29.94914565809799</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>64.34409336217051</v>
+        <v>29.94914570085888</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>70.28063408462076</v>
+        <v>29.94914571181101</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>56.85843427221825</v>
+        <v>29.94914566452696</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>48.26703119578126</v>
+        <v>29.94914565898904</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>59.18676243026138</v>
+        <v>29.94914567480849</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>63.42874456491943</v>
+        <v>29.94914567949024</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.91538575565818</v>
+        <v>29.94914562460103</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.23538331528238</v>
+        <v>29.94914566767836</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>58.37530039175283</v>
+        <v>29.94914567845442</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.59596381583982</v>
+        <v>29.94914563083583</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>46.0626665727259</v>
+        <v>29.9491456697608</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>52.73718135221244</v>
+        <v>29.94914568159977</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>15.52758195546236</v>
+        <v>29.94914563396752</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>44.26179034138706</v>
+        <v>29.94914567751681</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.05791146553258</v>
+        <v>29.94914568943078</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.5953512976408</v>
+        <v>29.9491456458298</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>63.58628641822323</v>
+        <v>29.94914569215042</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.69063335889871</v>
+        <v>29.94914570341784</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>69.39054198002458</v>
+        <v>29.94914569793083</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>77.79999089938755</v>
+        <v>29.94914571286267</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>86.23783728959936</v>
+        <v>29.94914571656388</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.59788711435675</v>
+        <v>29.94914566107733</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>70.06071518900067</v>
+        <v>29.94914570407617</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>76.0528913729236</v>
+        <v>29.94914571481508</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>18.87574796706392</v>
+        <v>29.94914564819979</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>11.548429319347</v>
+        <v>29.94914564269887</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>23.0033895258553</v>
+        <v>29.94914565849292</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.85618818470182</v>
+        <v>29.94914566319869</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-10.56474259012072</v>
+        <v>29.94914560985723</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>14.80080845680107</v>
+        <v>29.94914565157757</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.2491638240065</v>
+        <v>29.94914566274166</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-4.565910341345842</v>
+        <v>29.94914561744985</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>13.02565051576891</v>
+        <v>29.9491456548992</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>19.9825980052906</v>
+        <v>29.94914566701447</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-20.41970405145324</v>
+        <v>29.94914562003317</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>5.570168634641067</v>
+        <v>29.94914566166484</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>10.60349742245702</v>
+        <v>29.9491456738917</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-16.34077362037778</v>
+        <v>29.94914563091359</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.33011877743127</v>
+        <v>29.94914567545527</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>31.90546804399877</v>
+        <v>29.94914568702917</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>30.39340189554174</v>
+        <v>29.94914568164758</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>39.2378724402478</v>
+        <v>29.94914569656089</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>47.46663451269686</v>
+        <v>29.94914570029254</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-3.180246347368803</v>
+        <v>29.94914564607888</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>31.39388231457453</v>
+        <v>29.94914568790191</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>37.73541873813559</v>
+        <v>29.94914569906409</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>16.48079365083542</v>
+        <v>29.94914553521251</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>25.6199072393486</v>
+        <v>29.9491455651548</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>32.43570138237153</v>
+        <v>29.94914557678186</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>7.307756273307852</v>
+        <v>29.9491455377337</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.03892418532439</v>
+        <v>29.949145573212</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>32.10619238207579</v>
+        <v>29.94914558347007</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>10.59274742971239</v>
+        <v>29.94914554175394</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>42.65181932619399</v>
+        <v>29.94914557904153</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>47.28354653686201</v>
+        <v>29.94914558951096</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>35.76249533302533</v>
+        <v>29.94914558730974</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>41.57326474626439</v>
+        <v>29.94914560003507</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>44.03080583384126</v>
+        <v>29.94914560431657</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>19.05061048222655</v>
+        <v>29.94914556260735</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>31.99886207638576</v>
+        <v>29.94914559380368</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>41.27436245665419</v>
+        <v>29.94914560485005</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.5624219315646</v>
+        <v>29.94914559593066</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>37.78685354287801</v>
+        <v>29.94914563235047</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>41.06181816552431</v>
+        <v>29.94914564444898</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>7.994133631573602</v>
+        <v>29.94914559612394</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>27.18817771228623</v>
+        <v>29.94914563600871</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>31.78813095858152</v>
+        <v>29.94914564803922</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>8.681891322417727</v>
+        <v>29.94914560560382</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>42.99349510317793</v>
+        <v>29.94914564888668</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.24660522350289</v>
+        <v>29.94914555190195</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>30.69723204933528</v>
+        <v>29.94914558387554</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.7737149630693</v>
+        <v>29.94914559528497</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>11.97997567694737</v>
+        <v>29.94914555620693</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>37.5950645377178</v>
+        <v>29.94914559426242</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>41.22239865687465</v>
+        <v>29.94914560440948</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>15.74644973564999</v>
+        <v>29.94914556140245</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>52.61416972334145</v>
+        <v>29.94914560110974</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>56.3239112534062</v>
+        <v>29.94914561135148</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.60521340330806</v>
+        <v>29.94914560932985</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>55.36517624056764</v>
+        <v>29.94914562224229</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>58.00918734783478</v>
+        <v>29.94914562660144</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.90357162952691</v>
+        <v>29.94914558208388</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>46.01716685622841</v>
+        <v>29.94914561550268</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>54.0932791515896</v>
+        <v>29.94914562599558</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>25.73754926079275</v>
+        <v>29.94914561784922</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>44.81639266537118</v>
+        <v>29.94914565667415</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>47.57567532060009</v>
+        <v>29.9491456685521</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.48657035048939</v>
+        <v>29.94914561994426</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.32558339996805</v>
+        <v>29.94914566286554</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>44.49093070140083</v>
+        <v>29.94914567482151</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>17.0726217918513</v>
+        <v>29.94914563095055</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>57.03268038779618</v>
+        <v>29.94914567712043</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>20.04263460681135</v>
+        <v>29.94914555456512</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.08238471818895</v>
+        <v>29.94914558652768</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>39.27117685979175</v>
+        <v>29.94914559783914</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.33734663132224</v>
+        <v>29.94914555947649</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>41.64438024946947</v>
+        <v>29.94914559751094</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>45.42732646859491</v>
+        <v>29.94914560763534</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>19.23133716234176</v>
+        <v>29.94914556471165</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>56.70599770420662</v>
+        <v>29.94914560437642</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>60.56545966179592</v>
+        <v>29.94914561453252</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>54.27723916366922</v>
+        <v>29.94914561252937</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>59.87113207219331</v>
+        <v>29.94914562531686</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>62.79206685041109</v>
+        <v>29.94914562969609</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>31.02040831634307</v>
+        <v>29.94914558496582</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>50.10181347169591</v>
+        <v>29.94914561858414</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>58.17165695672865</v>
+        <v>29.94914562891205</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.0373934407417</v>
+        <v>29.94914562056829</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>47.75409712063554</v>
+        <v>29.94914565937186</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>50.69643989435816</v>
+        <v>29.94914567117006</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.43525259964855</v>
+        <v>29.94914562326136</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>45.15245342161245</v>
+        <v>29.94914566616897</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>49.47742263508655</v>
+        <v>29.94914567813017</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.2898199694177</v>
+        <v>29.9491456342968</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>62.01048421098038</v>
+        <v>29.94914568043566</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-7.128200642586773</v>
+        <v>29.94914554384905</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>4.283717120882305</v>
+        <v>29.94914557448986</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>10.69831816532242</v>
+        <v>29.94914558607617</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-15.83472394083573</v>
+        <v>29.94914554829992</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>8.369218880794824</v>
+        <v>29.94914558465873</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>12.20347130692138</v>
+        <v>29.94914559510971</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-13.49364481502014</v>
+        <v>29.94914555266708</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.18114983042828</v>
+        <v>29.94914559076363</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.29433223704428</v>
+        <v>29.9491456012127</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>20.06231641203398</v>
+        <v>29.94914559896156</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.88056847590727</v>
+        <v>29.94914561157954</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.42297820154871</v>
+        <v>29.94914561600702</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.3483980019369117</v>
+        <v>29.94914557269686</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>16.81402289458807</v>
+        <v>29.94914560521387</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>25.34867143696827</v>
+        <v>29.9491456160023</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-2.100451742961239</v>
+        <v>29.94914560631292</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>15.84710838563573</v>
+        <v>29.9491456435568</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>18.84395729969537</v>
+        <v>29.9491456556866</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-15.44118899312164</v>
+        <v>29.94914560850177</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>7.707849401053833</v>
+        <v>29.94914564944183</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>12.12574874763914</v>
+        <v>29.94914566179187</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-15.61217645599248</v>
+        <v>29.94914561841691</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.90647477062999</v>
+        <v>29.94914566270832</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>48.49589287157487</v>
+        <v>29.94914566062613</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>37.19206013174767</v>
+        <v>29.94914565398166</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>48.17115835655288</v>
+        <v>29.9491456703313</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>52.35928242093115</v>
+        <v>29.9491456749837</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>17.29944248507223</v>
+        <v>29.94914562222698</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>42.0803877347562</v>
+        <v>29.94914566267168</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>48.90733363532743</v>
+        <v>29.94914567407076</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.87413236585031</v>
+        <v>29.94914562710403</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>37.76466854879268</v>
+        <v>29.94914566417743</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>44.62079032994868</v>
+        <v>29.94914567648121</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>7.366965754869794</v>
+        <v>29.94914562827866</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.38447939564497</v>
+        <v>29.94914566916409</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>33.98631572677164</v>
+        <v>29.94914568125558</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>10.61996703106126</v>
+        <v>29.9491456393234</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>48.09144766392891</v>
+        <v>29.94914568346464</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>56.53533117616886</v>
+        <v>29.94914569520832</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>51.32787576482325</v>
+        <v>29.94914568856478</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>60.76735946571656</v>
+        <v>29.94914570395152</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>67.70937954713411</v>
+        <v>29.9491457076599</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.63654066657059</v>
+        <v>29.94914565459908</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.10512734166002</v>
+        <v>29.94914569458131</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>59.94526820147605</v>
+        <v>29.94914570630039</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.90592774732701</v>
+        <v>29.94914568860879</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.26053369181289</v>
+        <v>29.94914568134042</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>64.77825243123927</v>
+        <v>29.94914569764421</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>69.02489737351284</v>
+        <v>29.94914570232086</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.17302663784879</v>
+        <v>29.9491456469314</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>60.12121924769518</v>
+        <v>29.9491456900194</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>65.94156325753532</v>
+        <v>29.94914570084269</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.97690722034835</v>
+        <v>29.94914565034211</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>47.91865396452735</v>
+        <v>29.94914568989278</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>53.95040384117321</v>
+        <v>29.94914570186195</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>17.82137219211027</v>
+        <v>29.94914565348219</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.91971773297688</v>
+        <v>29.94914569748569</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.82134666255185</v>
+        <v>29.94914570945201</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.13127352728628</v>
+        <v>29.94914566605118</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>65.60209976709959</v>
+        <v>29.94914571317383</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.90753926478517</v>
+        <v>29.94914572453197</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>72.13199391303222</v>
+        <v>29.94914571724825</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>81.10329848065088</v>
+        <v>29.94914573258628</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>88.03489921667479</v>
+        <v>29.94914573629818</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>35.31158179856061</v>
+        <v>29.94914568076872</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>74.88075628368655</v>
+        <v>29.9491457233164</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>80.69399659711392</v>
+        <v>29.94914573432876</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>67.10018026978699</v>
+        <v>29.9491456918438</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>59.31677369290271</v>
+        <v>29.94914568443586</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>69.64150830917636</v>
+        <v>29.94914570054542</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>74.15613662229511</v>
+        <v>29.94914570523162</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.00339015744347</v>
+        <v>29.94914564982526</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>65.07730764582136</v>
+        <v>29.94914569308659</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>70.92671391826276</v>
+        <v>29.94914570373125</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>32.00720119674988</v>
+        <v>29.9491456531189</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>51.67266569391514</v>
+        <v>29.94914569270638</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>57.7990940512961</v>
+        <v>29.94914570455091</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.56381832931186</v>
+        <v>29.94914565689239</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>51.66293247163181</v>
+        <v>29.94914570093156</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>55.63960642650712</v>
+        <v>29.94914571286759</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.18133796414332</v>
+        <v>29.94914566948432</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>71.50770925264038</v>
+        <v>29.94914571662224</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>78.88702739033718</v>
+        <v>29.94914572785029</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>78.15296764435911</v>
+        <v>29.9491457204525</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>86.99230944717034</v>
+        <v>29.94914573560565</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>94.12908753683939</v>
+        <v>29.94914573931791</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>40.05446389555813</v>
+        <v>29.94914568373198</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>80.78719132771691</v>
+        <v>29.94914572651274</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>86.64218338101469</v>
+        <v>29.94914573730041</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.14169056163328</v>
+        <v>29.94914567447431</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>21.47950259562962</v>
+        <v>29.94914566706169</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>32.33293749918891</v>
+        <v>29.94914568316113</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.57025022793418</v>
+        <v>29.9491456879559</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-1.577512398731149</v>
+        <v>29.94914563402654</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.59756650920898</v>
+        <v>29.9491456759611</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>33.79114660464082</v>
+        <v>29.94914568706621</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>0.07330111808646289</v>
+        <v>29.9491456388018</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>17.81385554757456</v>
+        <v>29.94914567688318</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>24.27948297305417</v>
+        <v>29.94914568907469</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-14.12379074079833</v>
+        <v>29.94914564209498</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>12.19223308635059</v>
+        <v>29.94914568422019</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>16.43716174808494</v>
+        <v>29.9491456965066</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-11.59141905624355</v>
+        <v>29.94914565361539</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>30.37762057883838</v>
+        <v>29.94914569894014</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>38.27825217919357</v>
+        <v>29.94914571053799</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>38.23523867270212</v>
+        <v>29.94914570323915</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>47.50697047836997</v>
+        <v>29.9491457183834</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>54.51194333462627</v>
+        <v>29.94914572217689</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>3.317262649350374</v>
+        <v>29.94914566778914</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.24111035553393</v>
+        <v>29.94914570942941</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>47.47899385491362</v>
+        <v>29.94914572069277</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>13.3204804366265</v>
+        <v>29.94914551025221</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>18.10081718571373</v>
+        <v>29.9491455372968</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.93099774692137</v>
+        <v>29.94914554792527</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.032436842370431</v>
+        <v>29.94914551075526</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>15.6417526098664</v>
+        <v>29.94914554268889</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>19.02683654315672</v>
+        <v>29.94914555221513</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.529939831724494</v>
+        <v>29.94914551285092</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.00854271023812</v>
+        <v>29.94914554638029</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>30.08488216328028</v>
+        <v>29.94914555609307</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.66281776081896</v>
+        <v>29.94914555692103</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.3930495892638</v>
+        <v>29.9491455686972</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.85184100530278</v>
+        <v>29.94914557265744</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>8.542424362691657</v>
+        <v>29.94914553442561</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.46231431561805</v>
+        <v>29.94914556342379</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.1342702055807</v>
+        <v>29.94914557344587</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>14.96515186981843</v>
+        <v>29.94914556706949</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>25.53573761603123</v>
+        <v>29.94914560032327</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.00648955446537</v>
+        <v>29.94914561162979</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>0.8494027482483624</v>
+        <v>29.94914556595291</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>14.21704887768188</v>
+        <v>29.94914560238368</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>19.81363643388687</v>
+        <v>29.94914561378625</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.383528007749978</v>
+        <v>29.94914557352439</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.78672988337293</v>
+        <v>29.94914561293193</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>13.38726556447351</v>
+        <v>29.9491455244026</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.08431314318837</v>
+        <v>29.94914555330405</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.40334868806684</v>
+        <v>29.94914556377825</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.851872856481204</v>
+        <v>29.94914552654238</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.77101149647762</v>
+        <v>29.94914556085175</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.92780889718557</v>
+        <v>29.94914557031352</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.72105940559643</v>
+        <v>29.94914552961817</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.46801434967691</v>
+        <v>29.94914556535607</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.84386675655049</v>
+        <v>29.94914557490315</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>32.49652323670637</v>
+        <v>29.94914557589506</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.19240076100058</v>
+        <v>29.94914558785435</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>40.07806498882106</v>
+        <v>29.94914559192211</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>14.90666851431955</v>
+        <v>29.94914555107565</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.50283004924798</v>
+        <v>29.94914558216021</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>33.21329873998746</v>
+        <v>29.94914559173426</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>15.9945398669982</v>
+        <v>29.94914558616091</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.00250197782059</v>
+        <v>29.94914562163858</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>34.24329498116577</v>
+        <v>29.94914563282297</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.922619424668119</v>
+        <v>29.94914558686115</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.38141129388182</v>
+        <v>29.94914562611894</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.79345786955755</v>
+        <v>29.94914563752571</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>7.132340041379113</v>
+        <v>29.94914559574377</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>37.58534419935198</v>
+        <v>29.94914563781474</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>15.00461764429127</v>
+        <v>29.94914552710872</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>23.23552223863851</v>
+        <v>29.94914555599789</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>27.70113016649874</v>
+        <v>29.94914556639001</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.924877350475528</v>
+        <v>29.94914552981126</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.48448440493212</v>
+        <v>29.94914556410741</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.83140680689628</v>
+        <v>29.94914557355</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>10.93166519813494</v>
+        <v>29.94914553293378</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>38.2454920463393</v>
+        <v>29.9491455686338</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>40.80845861305217</v>
+        <v>29.94914557810746</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.69353197472599</v>
+        <v>29.94914557907954</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>41.24470043833997</v>
+        <v>29.94914559091579</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>44.45388137782469</v>
+        <v>29.94914559500614</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>17.72035059501927</v>
+        <v>29.949145553969</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.1950217254965</v>
+        <v>29.94914558523413</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.96623704416456</v>
+        <v>29.94914559466736</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.99575216381033</v>
+        <v>29.94914558887755</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.5835995578468</v>
+        <v>29.94914562432873</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.04229446941945</v>
+        <v>29.94914563545015</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>9.456354650667935</v>
+        <v>29.94914559013458</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.74124467926237</v>
+        <v>29.94914562938086</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.34395735636673</v>
+        <v>29.94914564079486</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>10.91960265236654</v>
+        <v>29.94914559904729</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>42.07412616681607</v>
+        <v>29.94914564108304</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-10.08940030066755</v>
+        <v>29.9491455181122</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-3.371343402005345</v>
+        <v>29.94914554578385</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.188712714825642</v>
+        <v>29.94914555639129</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-20.97458501273441</v>
+        <v>29.94914552036514</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>-4.379965916995817</v>
+        <v>29.94914555309928</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-1.093282860753205</v>
+        <v>29.9491455628185</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>-19.44098547014062</v>
+        <v>29.94914552277184</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>6.143459305865385</v>
+        <v>29.94914555703733</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>8.824817218358429</v>
+        <v>29.94914556673695</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.091859796485194</v>
+        <v>29.94914556749049</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>9.843656336657638</v>
+        <v>29.94914557914986</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>12.5540895166997</v>
+        <v>29.94914558322888</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-10.66219686736068</v>
+        <v>29.9491455435823</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1.377579847092919</v>
+        <v>29.94914557379442</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>6.428191030771178</v>
+        <v>29.9491455835988</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-9.653771472069517</v>
+        <v>29.94914557645481</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>3.299255958670169</v>
+        <v>29.94914561044714</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.706569734981267</v>
+        <v>29.94914562180712</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-22.62302302032755</v>
+        <v>29.94914557716413</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>-5.740249111972505</v>
+        <v>29.94914561455046</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-0.1447890542386567</v>
+        <v>29.94914562626962</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-23.0043009044864</v>
+        <v>29.94914558512212</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>6.078587446053332</v>
+        <v>29.94914562543883</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>33.45456744090055</v>
+        <v>29.94914562413122</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.73139585220314</v>
+        <v>29.94914562041994</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>32.49400250271234</v>
+        <v>29.94914563548157</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.65880028876052</v>
+        <v>29.94914563991706</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>6.418565213200126</v>
+        <v>29.94914559118831</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.90746285515183</v>
+        <v>29.94914562878343</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>31.26050587519975</v>
+        <v>29.9491456396127</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.27652071656695</v>
+        <v>29.94914559942648</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>31.03748854617322</v>
+        <v>29.94914563345157</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.54292431758601</v>
+        <v>29.94914564500961</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>2.671085603814154</v>
+        <v>29.94914559949382</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>19.86077442690101</v>
+        <v>29.94914563700132</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>24.92775193234037</v>
+        <v>29.94914564852793</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>6.831063762920522</v>
+        <v>29.94914560885497</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.66826957159918</v>
+        <v>29.94914564926442</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.94619967013419</v>
+        <v>29.94914566044388</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.3199881069056</v>
+        <v>29.94914565673611</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>46.8526655931913</v>
+        <v>29.94914567098199</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>55.02490993529518</v>
+        <v>29.94914567450778</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>12.48322678344647</v>
+        <v>29.94914562506683</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>38.58278221725417</v>
+        <v>29.94914566262114</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>44.85566607532989</v>
+        <v>29.94914567357619</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>43.89693140249166</v>
+        <v>29.94914564886328</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.2286802088457</v>
+        <v>29.94914564456194</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.59695659189658</v>
+        <v>29.9491456596081</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.08191736432293</v>
+        <v>29.94914566412361</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>15.16501307371347</v>
+        <v>29.94914561284521</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>38.34082023095849</v>
+        <v>29.94914565295458</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.91890830513911</v>
+        <v>29.94914566333684</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>23.60084482689207</v>
+        <v>29.94914562002171</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>39.02326526791084</v>
+        <v>29.94914565634523</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>44.95591944173521</v>
+        <v>29.94914566767256</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>11.07442634331339</v>
+        <v>29.94914562197462</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>33.80062861355685</v>
+        <v>29.94914566239643</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>38.38051305047306</v>
+        <v>29.94914567386428</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>16.13130705384625</v>
+        <v>29.94914563268481</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.39234833004855</v>
+        <v>29.94914567586092</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.78311608306768</v>
+        <v>29.94914568675078</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>57.00151518372144</v>
+        <v>29.94914568245381</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.07531383379896</v>
+        <v>29.94914569668142</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>72.49120588703774</v>
+        <v>29.94914570024627</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>25.36078245103834</v>
+        <v>29.94914564838955</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>57.11954520133398</v>
+        <v>29.9491456884068</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>62.56654162733184</v>
+        <v>29.94914569877934</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>48.63509058561129</v>
+        <v>29.94914565206594</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>40.72087343322894</v>
+        <v>29.94914564760786</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.90530099230325</v>
+        <v>29.94914566247148</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>54.71422680709421</v>
+        <v>29.94914566699967</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>18.51569709208026</v>
+        <v>29.94914561569692</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.75420848431224</v>
+        <v>29.94914565596194</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.41834815651174</v>
+        <v>29.94914566619258</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.31274739888447</v>
+        <v>29.94914562280792</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>42.39632548248749</v>
+        <v>29.94914565915951</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.46481595448203</v>
+        <v>29.94914567038276</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>15.39743334149785</v>
+        <v>29.94914562534991</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>39.07170127797691</v>
+        <v>29.94914566580965</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.75341688606606</v>
+        <v>29.94914567724868</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>20.7468342066866</v>
+        <v>29.94914563608693</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>56.801928606085</v>
+        <v>29.94914567927483</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>64.30708832548378</v>
+        <v>29.94914569005207</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>62.46185860253426</v>
+        <v>29.94914568561891</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>69.40624240371254</v>
+        <v>29.94914569967722</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>78.0784616963069</v>
+        <v>29.94914570324487</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.60787559411268</v>
+        <v>29.94914565131839</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>62.47324780912546</v>
+        <v>29.94914569155805</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>68.00688674176185</v>
+        <v>29.94914570173559</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>12.67530345414158</v>
+        <v>29.94914563668192</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>6.034008689868076</v>
+        <v>29.94914563226095</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>15.70574807941543</v>
+        <v>29.9491456470886</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>20.11057188575834</v>
+        <v>29.94914565163413</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>-13.14741702685594</v>
+        <v>29.94914560182553</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>8.318955760945363</v>
+        <v>29.94914564078485</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>15.21730039422242</v>
+        <v>29.94914565137771</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>-3.186619376526487</v>
+        <v>29.94914561019213</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>11.12226363802663</v>
+        <v>29.94914564512973</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>17.4041380608697</v>
+        <v>29.94914565662092</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>-18.60060074968814</v>
+        <v>29.94914561220784</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>2.469869843231611</v>
+        <v>29.94914565084847</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>7.32815711545831</v>
+        <v>29.94914566258448</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>-15.15959389349289</v>
+        <v>29.94914562201398</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>18.6807148290867</v>
+        <v>29.94914566350665</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.57781914603929</v>
+        <v>29.94914567457811</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>25.56211722746735</v>
+        <v>29.94914567024303</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>32.90596346802936</v>
+        <v>29.94914568427942</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>41.34384355508086</v>
+        <v>29.94914568787262</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>-4.27387737294307</v>
+        <v>29.9491456371736</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>25.88140202945547</v>
+        <v>29.94914567628456</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.689848137001</v>
+        <v>29.94914568685973</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>20.17124589152184</v>
+        <v>29.94914554251756</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.64859508589914</v>
+        <v>29.94914557212635</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.36151765428146</v>
+        <v>29.94914558380998</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>13.4667124209349</v>
+        <v>29.94914554575761</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>34.05000855054814</v>
+        <v>29.94914558082484</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>38.40462282649254</v>
+        <v>29.94914559108239</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.14238698045374</v>
+        <v>29.94914554974756</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>47.36678154122968</v>
+        <v>29.94914558669184</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>52.86057394603608</v>
+        <v>29.94914559719816</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>40.81741090941293</v>
+        <v>29.94914559449023</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>46.04111647092</v>
+        <v>29.94914560712779</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>48.64008220647919</v>
+        <v>29.94914561144049</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>25.44555727850803</v>
+        <v>29.94914557033598</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>37.8658729935209</v>
+        <v>29.94914560098213</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>48.69472564021157</v>
+        <v>29.94914561220488</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.24443018879098</v>
+        <v>29.94914560202575</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>38.15833647016802</v>
+        <v>29.94914563790996</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>41.97251376291091</v>
+        <v>29.94914565006783</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.42630383694552</v>
+        <v>29.94914560309848</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>30.01020319497129</v>
+        <v>29.9491456422588</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>34.7355748047633</v>
+        <v>29.94914565427677</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>10.35533002917392</v>
+        <v>29.94914561213234</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>43.7455888090842</v>
+        <v>29.94914565483715</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.09150098868128</v>
+        <v>29.9491455594387</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>33.94558243354714</v>
+        <v>29.94914559106982</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>40.89312437611983</v>
+        <v>29.94914560252478</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>18.42259070532064</v>
+        <v>29.94914556444789</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>43.99740294054976</v>
+        <v>29.94914560205258</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.90538833700828</v>
+        <v>29.94914561220127</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>20.55534469503397</v>
+        <v>29.94914556964656</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>57.69649510281072</v>
+        <v>29.94914560899857</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>62.24608415361721</v>
+        <v>29.94914561927121</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>55.21148048391511</v>
+        <v>29.94914561675083</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>60.37465680986411</v>
+        <v>29.94914562957664</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>63.12028806294771</v>
+        <v>29.94914563396176</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>34.78063305077395</v>
+        <v>29.94914559008052</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>52.46675778892283</v>
+        <v>29.94914562293589</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>62.05451668635586</v>
+        <v>29.94914563358701</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.68221231473235</v>
+        <v>29.94914562418946</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.52301551378052</v>
+        <v>29.94914566245951</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>48.79700411694641</v>
+        <v>29.94914567438008</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>20.35877722976577</v>
+        <v>29.94914562713543</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>43.67778366215623</v>
+        <v>29.94914566927411</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>47.97358599360438</v>
+        <v>29.94914568121915</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.18957617936704</v>
+        <v>29.94914563773142</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>58.35854279338272</v>
+        <v>29.94914568330291</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.86134599665139</v>
+        <v>29.94914556202202</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.31216125542515</v>
+        <v>29.94914559364545</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>43.37509774068386</v>
+        <v>29.94914560499968</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>21.76590969908939</v>
+        <v>29.94914556762337</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>48.03699209091525</v>
+        <v>29.94914560520574</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>52.11297794540756</v>
+        <v>29.94914561533247</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>24.03367480768548</v>
+        <v>29.94914557286696</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>61.79172773084587</v>
+        <v>29.94914561217929</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>66.49495438293731</v>
+        <v>29.94914562236542</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>59.92331590772859</v>
+        <v>29.94914561986818</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>64.90870492650052</v>
+        <v>29.94914563257247</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>67.93150667812624</v>
+        <v>29.94914563697683</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>37.89240730008256</v>
+        <v>29.94914559287657</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>56.55725586736503</v>
+        <v>29.94914562593971</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>66.13827311751469</v>
+        <v>29.9491456364213</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.0401441330368</v>
+        <v>29.9491456268625</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>48.53087993034585</v>
+        <v>29.94914566511521</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>51.99691094431877</v>
+        <v>29.94914567695247</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.37892547799099</v>
+        <v>29.94914563038716</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>48.58741907228384</v>
+        <v>29.94914567251193</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>53.06456631264543</v>
+        <v>29.94914568446295</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>23.50244871609494</v>
+        <v>29.94914564102498</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>63.45266688370804</v>
+        <v>29.94914568657029</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-3.957281200214844</v>
+        <v>29.94914555104238</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>6.82045246775988</v>
+        <v>29.94914558135428</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>14.1292144346089</v>
+        <v>29.94914559298803</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>-10.12136902306265</v>
+        <v>29.94914555619777</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>13.99230601909214</v>
+        <v>29.94914559213442</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.11700509242977</v>
+        <v>29.9491456025825</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>-9.464451198993247</v>
+        <v>29.94914556054742</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.44374919663116</v>
+        <v>29.9491455983021</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.41998457295342</v>
+        <v>29.94914560878629</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.85950749778791</v>
+        <v>29.94914560603222</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>30.06680133240369</v>
+        <v>29.94914561857197</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>32.72472128326153</v>
+        <v>29.94914562303495</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>6.468614857682086</v>
+        <v>29.9491455803149</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.45859764253842</v>
+        <v>29.94914561229861</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>32.53900293832101</v>
+        <v>29.94914562325284</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>-0.9524352476517663</v>
+        <v>29.94914561237247</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>15.70487592372178</v>
+        <v>29.9491456490873</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>19.23654757253632</v>
+        <v>29.94914566126555</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>-11.43132595019359</v>
+        <v>29.94914561540984</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>10.12897841091677</v>
+        <v>29.94914565561327</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>14.68511272594754</v>
+        <v>29.94914566794733</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-14.44575081293034</v>
+        <v>29.94914562490528</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>23.21672379730001</v>
+        <v>29.94914566862407</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>49.88449641027761</v>
+        <v>29.94914566660105</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.33261557884514</v>
+        <v>29.94914565950085</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>47.52167600095144</v>
+        <v>29.94914567574862</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>52.40363576266049</v>
+        <v>29.94914568041614</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>18.67187032418139</v>
+        <v>29.94914562835844</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>42.76242918806026</v>
+        <v>29.94914566805616</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>50.17224517784017</v>
+        <v>29.94914567952506</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>24.74543459740937</v>
+        <v>29.94914563272012</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>38.15478782910743</v>
+        <v>29.94914566924735</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>45.80289619787897</v>
+        <v>29.94914568159389</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.64434548656352</v>
+        <v>29.94914563475352</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>33.23611863502302</v>
+        <v>29.94914567490661</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.11782941562954</v>
+        <v>29.94914568696935</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>13.43737130136011</v>
+        <v>29.94914564531526</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>50.12102192026966</v>
+        <v>29.94914568887152</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>59.21724496822134</v>
+        <v>29.94914570062794</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>53.41723201376883</v>
+        <v>29.94914569349536</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>62.54919207685602</v>
+        <v>29.94914570876228</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>70.0271213096199</v>
+        <v>29.9491457124813</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.44390115438974</v>
+        <v>29.94914566021626</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>55.32602225620083</v>
+        <v>29.94914569938683</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>63.39791099564093</v>
+        <v>29.94914571120035</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>63.85235827779427</v>
+        <v>29.94914569480525</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>55.07834156572356</v>
+        <v>29.94914568708735</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>64.79613945811582</v>
+        <v>29.94914570328453</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>69.68632694752617</v>
+        <v>29.94914570796995</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.17028750465639</v>
+        <v>29.94914565333056</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>61.51920072260446</v>
+        <v>29.94914569564186</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>67.90170059048729</v>
+        <v>29.94914570651951</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>31.23190089466219</v>
+        <v>29.94914565617096</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>48.76252876371652</v>
+        <v>29.94914569515509</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>55.56324850144901</v>
+        <v>29.9491457071511</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>23.64948548229845</v>
+        <v>29.94914566012672</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>50.42934263886603</v>
+        <v>29.94914570333822</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.60795636984006</v>
+        <v>29.94914571527786</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>25.49886040512231</v>
+        <v>29.94914567224079</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>68.31724628345603</v>
+        <v>29.94914571875386</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.24869447249621</v>
+        <v>29.94914573011596</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>75.01890476824941</v>
+        <v>29.94914572234703</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>83.685128542443</v>
+        <v>29.94914573755842</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>91.10637451821273</v>
+        <v>29.94914574127674</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>38.8728213217742</v>
+        <v>29.94914568660268</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>77.93191162253639</v>
+        <v>29.94914572830019</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>84.97211471385222</v>
+        <v>29.94914573939056</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>69.17397469644452</v>
+        <v>29.94914569799105</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>60.26913949933829</v>
+        <v>29.9491456901358</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>69.78547284978033</v>
+        <v>29.94914570614155</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>74.94029092744812</v>
+        <v>29.94914571083642</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>35.11372802968971</v>
+        <v>29.94914565617841</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>66.59841429889488</v>
+        <v>29.94914569867085</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>73.01637202034406</v>
+        <v>29.94914570936597</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>34.35721551276375</v>
+        <v>29.94914565890051</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>52.62542564969463</v>
+        <v>29.94914569792452</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>59.52894474355568</v>
+        <v>29.94914570979247</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.48812876212268</v>
+        <v>29.94914566346938</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.28275098136911</v>
+        <v>29.94914570671507</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>60.55575784502942</v>
+        <v>29.94914571862576</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>30.66559532656315</v>
+        <v>29.94914567561797</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>74.36081229020225</v>
+        <v>29.94914572214957</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>82.37578516661453</v>
+        <v>29.94914573338031</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>81.19414676767209</v>
+        <v>29.94914572550269</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>89.72220842788491</v>
+        <v>29.94914574053041</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>97.34545400602727</v>
+        <v>29.94914574424886</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.75154949901417</v>
+        <v>29.94914568951843</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>83.98164906989393</v>
+        <v>29.94914573145363</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>91.07310547898796</v>
+        <v>29.94914574231474</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.09362253677052</v>
+        <v>29.94914568041082</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>21.31268237019099</v>
+        <v>29.94914567253347</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>31.35133116168779</v>
+        <v>29.94914568853875</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.25928255379871</v>
+        <v>29.94914569335461</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-0.5153515402789288</v>
+        <v>29.94914564012384</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.00935930238021</v>
+        <v>29.94914568133022</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>34.77943773112283</v>
+        <v>29.94914569249236</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>1.48694513239291</v>
+        <v>29.9491456443671</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>17.76163604716144</v>
+        <v>29.94914568190726</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>25.02219154200453</v>
+        <v>29.94914569412896</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-9.188743751524042</v>
+        <v>29.94914564848198</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>15.73730041275134</v>
+        <v>29.94914568986019</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>20.27330060140235</v>
+        <v>29.94914570211409</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>-9.200479003915019</v>
+        <v>29.94914565954111</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.05094234353611</v>
+        <v>29.9491457042827</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>40.60407492563788</v>
+        <v>29.94914571588784</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>40.11681814184646</v>
+        <v>29.94914570810183</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.07342747852475</v>
+        <v>29.94914572312814</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>56.59078372157017</v>
+        <v>29.9491457269354</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>5.91577330486243</v>
+        <v>29.94914567334772</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>43.28552672654003</v>
+        <v>29.94914571418575</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>50.77344082783006</v>
+        <v>29.94914572552792</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_5/out_of_sample/additive/ranking_test1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.177</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.242</v>
+        <v>15.363</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.001</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.329</v>
+        <v>20.485</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.02</v>
+        <v>0.922</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.508</v>
+        <v>7.59</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.94914553322829</v>
+        <v>14.86427761162898</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.94914556355296</v>
+        <v>17.31899011574173</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.9491455756293</v>
+        <v>27.09684203191409</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.94914553595968</v>
+        <v>1.444021327001028</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.94914557187876</v>
+        <v>19.50732499824208</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.94914558253273</v>
+        <v>23.79408669803301</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.94914553997856</v>
+        <v>5.876256222837274</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.94914557777477</v>
+        <v>33.41353359390185</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.94914558865862</v>
+        <v>38.7398051533572</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.94914558648899</v>
+        <v>19.36980230353219</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.94914559954098</v>
+        <v>26.71246537512687</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.94914560403194</v>
+        <v>27.87907586134282</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.94914556165862</v>
+        <v>15.28464812943056</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.94914559327888</v>
+        <v>17.13823375488937</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.94914560480342</v>
+        <v>30.7955996375851</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.94914559462699</v>
+        <v>16.87678333038132</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.94914563149821</v>
+        <v>24.28706936643017</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.9491456441589</v>
+        <v>29.49189329242485</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.94914559496203</v>
+        <v>0.8340227410304806</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.9491456352775</v>
+        <v>11.95146536141747</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.94914564785525</v>
+        <v>15.72681988752899</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.94914560446509</v>
+        <v>-1.687410650949335</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.94914564832168</v>
+        <v>21.84187274730109</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.94914555042758</v>
+        <v>18.10890216639831</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.94914558282728</v>
+        <v>29.48482492532411</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.94914559468598</v>
+        <v>34.40281835072047</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.94914555499932</v>
+        <v>4.562625612604265</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.94914559352979</v>
+        <v>36.41213470426898</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.94914560408895</v>
+        <v>37.81364380895036</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.94914556025149</v>
+        <v>8.562740807055523</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.94914560051911</v>
+        <v>51.01540002331308</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.94914561118007</v>
+        <v>52.41444419166525</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.94914560920991</v>
+        <v>48.776183822649</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.94914562245677</v>
+        <v>55.69171979262316</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.94914562703114</v>
+        <v>56.37875077970313</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.94914558178458</v>
+        <v>27.39018693238714</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.94914561568337</v>
+        <v>46.10733683750601</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.94914562663726</v>
+        <v>54.62348889594153</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.9491456172826</v>
+        <v>22.59234102623317</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.94914565662233</v>
+        <v>39.99340323461268</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.94914566906191</v>
+        <v>42.42760631400212</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.94914561957696</v>
+        <v>8.063101106613097</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.94914566297813</v>
+        <v>36.26959974778998</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.94914567550721</v>
+        <v>38.49862664014734</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.949145630684</v>
+        <v>8.509397595914869</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.94914567750158</v>
+        <v>50.90602420183954</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.94914555314967</v>
+        <v>9.007042147569113</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.94914558553837</v>
+        <v>21.09223007562708</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.94914559729708</v>
+        <v>28.34381996014389</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.94914555833629</v>
+        <v>1.753490329735609</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.94914559684249</v>
+        <v>31.78572800779796</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.94914560738317</v>
+        <v>36.32567846131708</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.94914556363482</v>
+        <v>5.521286954376844</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.94914560385968</v>
+        <v>47.58706672638525</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.94914561443577</v>
+        <v>52.15026447245944</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.94914561247912</v>
+        <v>49.73386317802468</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.94914562560022</v>
+        <v>55.19268104292523</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.94914563019492</v>
+        <v>59.1441163546958</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.94914558472845</v>
+        <v>16.95146839799186</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.94914561883558</v>
+        <v>38.45034915416453</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.94914562961994</v>
+        <v>49.5998851499107</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.94914562009003</v>
+        <v>14.53337696453484</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.94914565940831</v>
+        <v>32.44184694394917</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.94914567176824</v>
+        <v>38.44330796377182</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.94914562299318</v>
+        <v>4.15262297154425</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.94914566637748</v>
+        <v>30.73574691109443</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.94914567891981</v>
+        <v>37.61463093051281</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.94914563413934</v>
+        <v>4.869600135470499</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.94914568092634</v>
+        <v>47.13995606449238</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.94914554202872</v>
+        <v>4.996327984613547</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.94914557306296</v>
+        <v>16.05069259701235</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.94914558510316</v>
+        <v>27.43691411849257</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.94914554673355</v>
+        <v>2.339074738345293</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.94914558353871</v>
+        <v>31.11474463833914</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.94914559440546</v>
+        <v>38.66092829883794</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.9491455511207</v>
+        <v>3.321635415965396</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.94914558973914</v>
+        <v>43.43302114856273</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.94914560061663</v>
+        <v>51.5128881405209</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.94914559837916</v>
+        <v>40.30100960950717</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.94914561133033</v>
+        <v>46.33017852099178</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.94914561597945</v>
+        <v>52.15167094663239</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.94914557196151</v>
+        <v>11.93352445693239</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.94914560493953</v>
+        <v>30.8302547673952</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.94914561620474</v>
+        <v>47.50468765792431</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.94914560529698</v>
+        <v>10.07435457212343</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.94914564300868</v>
+        <v>27.66631557139197</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.9491456557142</v>
+        <v>36.57680571700359</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.94914560767659</v>
+        <v>4.169548333100433</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.94914564905794</v>
+        <v>27.46873445146743</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.94914566198801</v>
+        <v>36.98908368046005</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.94914561764751</v>
+        <v>0.8662372293627207</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.94914566253348</v>
+        <v>39.77138822746416</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.9491456605804</v>
+        <v>30.72517555790153</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.94914565373456</v>
+        <v>18.95042477153364</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.94914567053641</v>
+        <v>30.43692861858314</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.9491456754047</v>
+        <v>33.56231484423194</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.94914562169081</v>
+        <v>5.568777976239058</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.94914566273942</v>
+        <v>20.55238923693779</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.94914567461005</v>
+        <v>28.22042969180656</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.94914562673767</v>
+        <v>15.0927140769865</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.94914566433559</v>
+        <v>22.34099790302315</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.94914567716884</v>
+        <v>31.5407591167906</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.94914562811642</v>
+        <v>-3.065673712492742</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.94914566953954</v>
+        <v>10.72716340883677</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.94914568212117</v>
+        <v>16.56522798252006</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.94914563919079</v>
+        <v>-3.641497586008263</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.9491456839768</v>
+        <v>24.71264955951776</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.94914569619936</v>
+        <v>40.08551665665323</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.94914568930974</v>
+        <v>27.19835599265076</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.94914570509681</v>
+        <v>40.43896435278273</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.94914570896151</v>
+        <v>46.42590864757493</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.94914565499505</v>
+        <v>2.813051296366087</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.94914569555483</v>
+        <v>23.32496871869906</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.94914570773376</v>
+        <v>36.64868174475137</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.94914568951549</v>
+        <v>58.40685103999504</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.94914568203085</v>
+        <v>55.67570340606252</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.9491456987857</v>
+        <v>63.55284991782051</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.94914570368084</v>
+        <v>65.57405642901828</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.94914564725768</v>
+        <v>25.35792489156873</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.94914569103317</v>
+        <v>60.91900722045547</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.94914570231663</v>
+        <v>64.81517566421957</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.94914565075246</v>
+        <v>24.97091686854147</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.94914569089802</v>
+        <v>43.4367833553512</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.94914570339185</v>
+        <v>46.88193686267893</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.94914565414521</v>
+        <v>9.904779289764345</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.94914569874441</v>
+        <v>44.74121342002137</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.94914571122069</v>
+        <v>45.32410035207586</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.94914566681549</v>
+        <v>12.42430433363083</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.94914571466161</v>
+        <v>62.92085000112419</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.94914572649913</v>
+        <v>70.75209223293363</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.94914571894266</v>
+        <v>76.13338193458937</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.94914573467918</v>
+        <v>83.40262882133365</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.94914573855127</v>
+        <v>86.85293028280357</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.94914568204997</v>
+        <v>33.87612667373243</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.94914572525139</v>
+        <v>76.5416821597597</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.94914573670628</v>
+        <v>81.56262346239707</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.94914569286354</v>
+        <v>59.47412972215763</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.94914568522907</v>
+        <v>51.03661997376904</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.9491457017864</v>
+        <v>57.16131286533312</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.94914570669248</v>
+        <v>63.8635821112707</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.94914565024909</v>
+        <v>15.94728372000019</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.94914569420822</v>
+        <v>55.75999800251763</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.94914570531037</v>
+        <v>62.74284550919431</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.94914565362626</v>
+        <v>17.88613576304326</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.94914569381009</v>
+        <v>37.99880006704034</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.94914570617779</v>
+        <v>44.2389783431023</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.94914565766174</v>
+        <v>6.762902543049304</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.94914570229541</v>
+        <v>41.45557420379778</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.94914571474755</v>
+        <v>45.49180134622046</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.94914567036448</v>
+        <v>10.06556996778007</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.94914571822786</v>
+        <v>61.99773421228589</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.94914572993632</v>
+        <v>73.34614485048574</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.94914572225702</v>
+        <v>76.53316260229613</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.94914573780493</v>
+        <v>81.72875529677451</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.94914574167859</v>
+        <v>89.51530542186784</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.94914568511488</v>
+        <v>25.16449071435061</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.94914572856092</v>
+        <v>74.42344966020497</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.94914573978627</v>
+        <v>82.24443606424215</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.94914567484302</v>
+        <v>54.27184770978478</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.9491456671822</v>
+        <v>33.09431272250755</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.94914568373455</v>
+        <v>40.72731238710529</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.94914568875909</v>
+        <v>50.65640180571512</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.9491456338365</v>
+        <v>8.601745213177619</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.9491456764288</v>
+        <v>45.72229036786266</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.94914568800634</v>
+        <v>56.11294168089049</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.9491456387915</v>
+        <v>14.3947650110668</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.94914567742252</v>
+        <v>35.54062089159262</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.94914569015003</v>
+        <v>46.10580769062727</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.94914564233398</v>
+        <v>7.669764545223931</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.94914568501727</v>
+        <v>39.40067690366117</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.9491456978194</v>
+        <v>48.10785821273657</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.94914565391642</v>
+        <v>6.514121542894703</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.94914569991514</v>
+        <v>56.02775430375149</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.94914571200606</v>
+        <v>72.20222406404788</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.94914570441828</v>
+        <v>62.69141535155114</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.94914571996171</v>
+        <v>71.12969714012837</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.94914572392245</v>
+        <v>83.69642371625142</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.94914566858428</v>
+        <v>15.72060801659039</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.94914571085784</v>
+        <v>63.87434262180632</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.94914572257462</v>
+        <v>78.22942971012083</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.94914551294811</v>
+        <v>10.70211250800279</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.94914554204021</v>
+        <v>13.09544511497092</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.94914555343012</v>
+        <v>21.70264410886724</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.94914551429626</v>
+        <v>-0.1128492791232247</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.9491455488782</v>
+        <v>14.61559448442577</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.94914555894666</v>
+        <v>17.66657984151809</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.94914551706484</v>
+        <v>5.069485027503738</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.94914555322938</v>
+        <v>31.50681249597557</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.94914556352075</v>
+        <v>34.16831232114349</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.94914556335809</v>
+        <v>18.23171669600385</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.94914557586778</v>
+        <v>24.62304636447285</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.94914558000202</v>
+        <v>24.99816499404196</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.94914553888605</v>
+        <v>10.03126233623438</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.94914556994656</v>
+        <v>11.81169610162815</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.94914558067118</v>
+        <v>21.75224611042584</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.94914557292593</v>
+        <v>11.85063819093497</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.94914560864018</v>
+        <v>20.39398565617076</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.94914562059171</v>
+        <v>25.29288250573485</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.94914557223544</v>
+        <v>-2.444013726600563</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.94914561154573</v>
+        <v>8.835150826496722</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.94914562348784</v>
+        <v>13.14665223939545</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.94914558086166</v>
+        <v>-2.094060519834446</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.94914562325509</v>
+        <v>23.04264019361854</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.94914552813522</v>
+        <v>11.86944040972627</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.94914555918579</v>
+        <v>22.40705987198817</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.94914557041372</v>
+        <v>27.02440772754299</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.94914553123192</v>
+        <v>0.929713872337171</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.94914556834247</v>
+        <v>28.63219685544605</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.94914557833046</v>
+        <v>29.47531777102567</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.94914553503766</v>
+        <v>5.079544526116596</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.94914557353839</v>
+        <v>45.33653210710699</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.94914558365052</v>
+        <v>44.74613447826004</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.94914558368048</v>
+        <v>41.73731065028655</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.94914559637738</v>
+        <v>47.63234935534941</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.94914560061681</v>
+        <v>48.57222473449254</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.94914555672423</v>
+        <v>17.04607550118251</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.9491455899895</v>
+        <v>34.05365213674447</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.94914560022269</v>
+        <v>39.54567813359698</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.94914559324874</v>
+        <v>13.9393207447949</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.94914563130421</v>
+        <v>31.26909149229213</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.94914564312126</v>
+        <v>34.33048161013066</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.94914559448851</v>
+        <v>0.6528032295384634</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.94914563680505</v>
+        <v>27.84817665016027</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.94914564873044</v>
+        <v>31.21496140223202</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.94914560448621</v>
+        <v>2.802103797226437</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.94914564969117</v>
+        <v>45.00766220442453</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.94914553089862</v>
+        <v>4.537141377422738</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.94914556193581</v>
+        <v>15.81200892227251</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.94914557307236</v>
+        <v>22.39775915090951</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.94914553459171</v>
+        <v>-0.6850596381784761</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.94914557168731</v>
+        <v>25.57749337156448</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.94914558164943</v>
+        <v>28.95472311274617</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.94914553843663</v>
+        <v>2.98794852057501</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.94914557689396</v>
+        <v>42.95127286332641</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.94914558692437</v>
+        <v>45.14755791057231</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.94914558695349</v>
+        <v>43.06040993754156</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.94914559952008</v>
+        <v>47.44570478697351</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.949145603782</v>
+        <v>51.72650408953753</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.94914555967894</v>
+        <v>7.730520666592557</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.94914559314053</v>
+        <v>27.26606981925574</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.94914560321888</v>
+        <v>34.89222058534233</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.94914559602215</v>
+        <v>7.051026764482252</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.94914563405095</v>
+        <v>24.83253566678794</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.94914564579616</v>
+        <v>30.85113544132227</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.94914559785673</v>
+        <v>-2.340999613358569</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.94914564016329</v>
+        <v>23.46394864873634</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.94914565208984</v>
+        <v>30.57927535667055</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.94914560787264</v>
+        <v>-0.2012778029927027</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.94914565303888</v>
+        <v>41.82261487667388</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.94914552122678</v>
+        <v>1.503725091500126</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.94914555098702</v>
+        <v>11.68839429244974</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.94914556234239</v>
+        <v>22.16929045705398</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.94914552444382</v>
+        <v>0.0151185726332983</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.94914555988695</v>
+        <v>24.97104214463643</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.94914557013916</v>
+        <v>31.30761200077731</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.94914552752364</v>
+        <v>1.661608529247612</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.94914556446804</v>
+        <v>39.48822699473289</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.94914557473277</v>
+        <v>45.29987120584032</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.94914557453316</v>
+        <v>36.36355661052298</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.94914558691914</v>
+        <v>41.36686676029914</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.94914559117453</v>
+        <v>46.5489370393599</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.94914554852625</v>
+        <v>5.053873114801373</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.94914558087997</v>
+        <v>22.61840582789339</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.9491455913607</v>
+        <v>35.42633953425005</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.94914558280527</v>
+        <v>3.149657530709877</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.94914561930887</v>
+        <v>20.60066396957914</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.94914563130071</v>
+        <v>28.83924033983902</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.94914558407243</v>
+        <v>-2.838474519799764</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.94914562441559</v>
+        <v>19.6372265014297</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.9491456366686</v>
+        <v>28.66593216513158</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.94914559307853</v>
+        <v>-3.699449168312388</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.94914563643845</v>
+        <v>34.89204872832291</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.94914563498962</v>
+        <v>29.71347034385702</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.94914563020463</v>
+        <v>18.24208777971182</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.949145646249</v>
+        <v>29.7089593209375</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.94914565084402</v>
+        <v>31.76267893982458</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.94914559866239</v>
+        <v>4.948895631955455</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.94914563892885</v>
+        <v>19.23009090022595</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.94914565036767</v>
+        <v>24.87055377888219</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.94914560617974</v>
+        <v>14.1976220151123</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.94914564265773</v>
+        <v>23.42563384428124</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.94914565486323</v>
+        <v>32.77485762434308</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.9491456066823</v>
+        <v>-5.477924781783681</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.94914564709432</v>
+        <v>9.472143791486371</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.94914565912892</v>
+        <v>15.88144959205276</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.94914561712758</v>
+        <v>-2.828139984438931</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.94914566052318</v>
+        <v>29.52205249258243</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.94914567223064</v>
+        <v>42.21472479930513</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.94914566748044</v>
+        <v>29.05161703637029</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.94914568262008</v>
+        <v>41.33314882055342</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.9491456862862</v>
+        <v>47.01717096352323</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.94914563340858</v>
+        <v>3.980478962654939</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.94914567358228</v>
+        <v>25.70605178706579</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.94914568516947</v>
+        <v>36.55026971438766</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.94914566125432</v>
+        <v>51.03046867823374</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.94914565586533</v>
+        <v>45.98509674607554</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.94914567187976</v>
+        <v>54.16112454223789</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.94914567655007</v>
+        <v>56.25536207479691</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.9491456216908</v>
+        <v>17.00531350410041</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.94914566459865</v>
+        <v>49.88713901708421</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.94914567554279</v>
+        <v>52.30835628090031</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.94914562799995</v>
+        <v>20.06296190641591</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.94914566689411</v>
+        <v>39.18514029478897</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.94914567884877</v>
+        <v>43.8511015211614</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.94914563050405</v>
+        <v>3.631365984827202</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.94914567401128</v>
+        <v>38.25742849272482</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.94914568596275</v>
+        <v>40.03323790885189</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.94914564235284</v>
+        <v>8.311966492898325</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.94914568866338</v>
+        <v>60.654872917692</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.94914570005497</v>
+        <v>66.96690177822265</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.94914569469717</v>
+        <v>69.0722784526623</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.94914570980936</v>
+        <v>75.76060694931462</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.94914571350935</v>
+        <v>80.38243394527402</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.94914565809799</v>
+        <v>27.6268421437625</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.94914570085888</v>
+        <v>69.39551281813868</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.94914571181101</v>
+        <v>72.66790975075271</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.94914566452696</v>
+        <v>51.9971478410195</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.94914565898904</v>
+        <v>41.62261751882694</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.94914567480849</v>
+        <v>47.91336138845197</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.94914567949024</v>
+        <v>54.65335249760511</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.94914562460103</v>
+        <v>8.062140238495303</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.94914566767836</v>
+        <v>44.68974388149495</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.94914567845442</v>
+        <v>49.59247203533346</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.94914563083583</v>
+        <v>13.78665833052768</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.9491456697608</v>
+        <v>34.56187504700699</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.94914568159977</v>
+        <v>41.38769176500188</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.94914563396752</v>
+        <v>1.14240979850408</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.94914567751681</v>
+        <v>36.00250098077557</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.94914568943078</v>
+        <v>40.33664595265779</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.9491456458298</v>
+        <v>6.369380689179444</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.94914569215042</v>
+        <v>60.1233706302631</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.94914570341784</v>
+        <v>69.30569860248417</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.94914569793083</v>
+        <v>69.49772807422165</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.94914571286267</v>
+        <v>74.06140416657598</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.94914571656388</v>
+        <v>83.11426464049896</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.94914566107733</v>
+        <v>19.14230383487265</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.94914570407617</v>
+        <v>67.2888146799087</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.94914571481508</v>
+        <v>72.75138623144085</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.94914564819979</v>
+        <v>46.82666673931705</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.94914564269887</v>
+        <v>26.44980302517302</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.94914565849292</v>
+        <v>34.06049743762753</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.94914566319869</v>
+        <v>42.6770959767424</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.94914560985723</v>
+        <v>2.428988151795473</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.94914565157757</v>
+        <v>36.55853377143172</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.94914566274166</v>
+        <v>44.61672025028814</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.94914561744985</v>
+        <v>10.89805517220493</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.9491456548992</v>
+        <v>33.03532222616883</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.94914566701447</v>
+        <v>43.34919472556621</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.94914562003317</v>
+        <v>1.340976585666962</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.94914566166484</v>
+        <v>33.68258581364073</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.9491456738917</v>
+        <v>41.91816569907864</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.94914563091359</v>
+        <v>3.151260021360702</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.94914567545527</v>
+        <v>54.96274864380193</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.94914568702917</v>
+        <v>68.23883641778735</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.94914568164758</v>
+        <v>58.62114770820713</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.94914569656089</v>
+        <v>66.15532293156302</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.94914570029254</v>
+        <v>78.30786560808089</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.94914564607888</v>
+        <v>11.31911647479743</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.94914568790191</v>
+        <v>59.32896725224943</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.94914569906409</v>
+        <v>70.88793728743651</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.94914553521251</v>
+        <v>13.28533166986714</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.9491455651548</v>
+        <v>18.44439627858973</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.94914557678186</v>
+        <v>27.00539704641977</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.9491455377337</v>
+        <v>0.7305603051003864</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.949145573212</v>
+        <v>20.57273011710601</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.94914558347007</v>
+        <v>24.48422513583191</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.94914554175394</v>
+        <v>4.83900364497579</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.94914557904153</v>
+        <v>37.15199596184773</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.94914558951096</v>
+        <v>40.98802529037754</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.94914558730974</v>
+        <v>21.2784023329554</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.94914560003507</v>
+        <v>29.07069747314517</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.94914560431657</v>
+        <v>30.29289117225252</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.94914556260735</v>
+        <v>15.85040285873357</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.94914559380368</v>
+        <v>18.32726478238477</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.94914560485005</v>
+        <v>30.80542775865115</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.94914559593066</v>
+        <v>18.49696732534407</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.94914563235047</v>
+        <v>28.54619344112418</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.94914564444898</v>
+        <v>31.92919417944021</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.94914559612394</v>
+        <v>2.321981617880112</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.94914563600871</v>
+        <v>16.22544866636161</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.94914564803922</v>
+        <v>19.33598785905393</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.94914560560382</v>
+        <v>0.05017904783744598</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.94914564888668</v>
+        <v>28.79882951710204</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.94914555190195</v>
+        <v>18.02825178675195</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.94914558387554</v>
+        <v>32.06127480571051</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.94914559528497</v>
+        <v>35.71877866939062</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.94914555620693</v>
+        <v>4.938882612713481</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.94914559426242</v>
+        <v>38.56335274965761</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.94914560440948</v>
+        <v>39.460161264247</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.94914556140245</v>
+        <v>8.728391715024006</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.94914560110974</v>
+        <v>55.83850275214479</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.94914561135148</v>
+        <v>55.61652901887095</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.94914560932985</v>
+        <v>51.03631850622712</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.94914562224229</v>
+        <v>58.22787101966871</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.94914562660144</v>
+        <v>59.20648671129588</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.94914558208388</v>
+        <v>28.07640555199631</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.94914561550268</v>
+        <v>47.26178308777999</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.94914562599558</v>
+        <v>54.4890712940105</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.94914561784922</v>
+        <v>24.74923956439712</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.94914565667415</v>
+        <v>44.49696344463779</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.9491456685521</v>
+        <v>44.99209427352658</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.94914561994426</v>
+        <v>9.351474014905275</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.94914566286554</v>
+        <v>40.13445062448773</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.94914567482151</v>
+        <v>41.38587942758636</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.94914563095055</v>
+        <v>10.02137397403677</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.94914567712043</v>
+        <v>57.20261942520168</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.94914555456512</v>
+        <v>10.04053390216453</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.94914558652768</v>
+        <v>24.91549188904862</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.94914559783914</v>
+        <v>30.72758396282938</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.94914555947649</v>
+        <v>3.151873223280766</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.94914559751094</v>
+        <v>35.19249201799979</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.94914560763534</v>
+        <v>38.90681507913656</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.94914556471165</v>
+        <v>6.77499300638862</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.94914560437642</v>
+        <v>53.64270092332185</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.94914561453252</v>
+        <v>56.37467063457029</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.94914561252937</v>
+        <v>53.10076129615612</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.94914562531686</v>
+        <v>58.79757580309924</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.94914562969609</v>
+        <v>62.99996031332707</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.94914558496582</v>
+        <v>18.80509093609578</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.94914561858414</v>
+        <v>40.90773725155027</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.94914562891205</v>
+        <v>50.46491228228288</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.94914562056829</v>
+        <v>17.43828090771224</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.94914565937186</v>
+        <v>37.8582217479271</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.94914567117006</v>
+        <v>41.57035904740593</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.94914562326136</v>
+        <v>6.267547547172168</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.94914566616897</v>
+        <v>35.65960938714093</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.94914567813017</v>
+        <v>41.0518448455983</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.9491456342968</v>
+        <v>7.165241137370909</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.94914568043566</v>
+        <v>54.42340687940393</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.94914554384905</v>
+        <v>6.345165483536917</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.94914557448986</v>
+        <v>20.28183922402092</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.94914558607617</v>
+        <v>30.21891829945849</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.94914554829992</v>
+        <v>4.12727649896927</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.94914558465873</v>
+        <v>34.98696758608325</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.94914559510971</v>
+        <v>41.79393085591096</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.94914555266708</v>
+        <v>5.077681246520175</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.94914559076363</v>
+        <v>50.08520785051068</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.9491456012127</v>
+        <v>56.36509016554035</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.94914559896156</v>
+        <v>44.5872596349425</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.94914561157954</v>
+        <v>51.09373647658383</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.94914561600702</v>
+        <v>56.88820145280043</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.94914557269686</v>
+        <v>14.92797484810474</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.94914560521387</v>
+        <v>34.58891023821138</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.9491456160023</v>
+        <v>49.62955781402671</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.94914560631292</v>
+        <v>12.79388982902515</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.9491456435568</v>
+        <v>33.10940332522112</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.9491456556866</v>
+        <v>39.67217858104128</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.94914560850177</v>
+        <v>6.28872943202331</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.94914564944183</v>
+        <v>32.51080261874795</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.94914566179187</v>
+        <v>40.59547567336305</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.94914561841691</v>
+        <v>3.264598297633011</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.94914566270832</v>
+        <v>47.42113411248243</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.94914566062613</v>
+        <v>35.10247267681101</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.94914565398166</v>
+        <v>24.37177707244562</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.9491456703313</v>
+        <v>36.68537981194102</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.9491456749837</v>
+        <v>38.97467387620389</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.94914562222698</v>
+        <v>11.76538321653513</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.94914566267168</v>
+        <v>27.88218406957191</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.94914567407076</v>
+        <v>34.43530283945255</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.94914562710403</v>
+        <v>18.28169728252761</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.94914566417743</v>
+        <v>27.59669219449761</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.94914567648121</v>
+        <v>35.03975717979639</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.94914562827866</v>
+        <v>-1.607098420916056</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.94914566916409</v>
+        <v>14.21867431381135</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.94914568125558</v>
+        <v>19.443095268972</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.9491456393234</v>
+        <v>-2.13459045258578</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.94914568346464</v>
+        <v>30.96309231808669</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.94914569520832</v>
+        <v>43.91018772303497</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.94914568856478</v>
+        <v>31.72524054589585</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.94914570395152</v>
+        <v>45.10632596092235</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.9491457076599</v>
+        <v>50.22015852288602</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.94914565459908</v>
+        <v>8.165053183838783</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.94914569458131</v>
+        <v>29.30818461859276</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.94914570630039</v>
+        <v>41.60915951758508</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.94914568860879</v>
+        <v>61.8439832930728</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.94914568134042</v>
+        <v>60.01234049995934</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.94914569764421</v>
+        <v>68.51033278804829</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.94914570232086</v>
+        <v>69.92064650329728</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.9491456469314</v>
+        <v>30.56203600918892</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.9491456900194</v>
+        <v>66.69205091243845</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.94914570084269</v>
+        <v>69.23249978133848</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.94914565034211</v>
+        <v>27.85870902489572</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.94914568989278</v>
+        <v>48.04179943722882</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.94914570186195</v>
+        <v>49.62444933003925</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.94914565348219</v>
+        <v>10.65747003065803</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.94914569748569</v>
+        <v>47.22381563601407</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.94914570945201</v>
+        <v>46.83388093194844</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.94914566605118</v>
+        <v>13.10437621950601</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.94914571317383</v>
+        <v>67.79279678899201</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.94914572453197</v>
+        <v>73.03067105872914</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.94914571724825</v>
+        <v>78.81061554767922</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.94914573258628</v>
+        <v>86.03437228783361</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.94914573629818</v>
+        <v>88.90868289067997</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.94914568076872</v>
+        <v>37.53100266184667</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.9491457233164</v>
+        <v>80.42020583514335</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.94914573432876</v>
+        <v>84.09093929239766</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.9491456918438</v>
+        <v>63.44598995166425</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.94914568443586</v>
+        <v>56.31754027997948</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.94914570054542</v>
+        <v>63.00944620790747</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.94914570523162</v>
+        <v>69.0058688068884</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.94914564982526</v>
+        <v>22.02250984182604</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.94914569308659</v>
+        <v>62.48143489265605</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.94914570373125</v>
+        <v>67.65713271298915</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.9491456531189</v>
+        <v>21.11506527519956</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.94914569270638</v>
+        <v>43.04772874137292</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.94914570455091</v>
+        <v>47.06479497684322</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.94914565689239</v>
+        <v>7.942714234953197</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.94914570093156</v>
+        <v>44.54478769272865</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.94914571286759</v>
+        <v>47.11613386515253</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.94914566948432</v>
+        <v>11.15593095172589</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.94914571662224</v>
+        <v>67.39954878971618</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.94914572785029</v>
+        <v>75.7183859112435</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.9491457204525</v>
+        <v>79.70693506601845</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.94914573560565</v>
+        <v>84.79794456009284</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.94914573931791</v>
+        <v>91.87539789597891</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.94914568373198</v>
+        <v>29.3722779212737</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.94914572651274</v>
+        <v>78.90830686210631</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.94914573730041</v>
+        <v>84.90485824462802</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.94914567447431</v>
+        <v>58.60646874644522</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.94914566706169</v>
+        <v>39.0461616714661</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.94914568316113</v>
+        <v>47.49275085800269</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.9491456879559</v>
+        <v>56.44712364894541</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.94914563402654</v>
+        <v>15.27981731736838</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.9491456759611</v>
+        <v>53.3720294775087</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.94914568706621</v>
+        <v>61.9700295754928</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.9491456388018</v>
+        <v>18.00752412304205</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.94914567688318</v>
+        <v>41.19260451155798</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.94914568907469</v>
+        <v>49.42781908042484</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.94914564209498</v>
+        <v>9.255124501567352</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.94914568422019</v>
+        <v>43.0534943550114</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.9491456965066</v>
+        <v>50.35213794719744</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.94914565361539</v>
+        <v>8.162449743424066</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.94914569894014</v>
+        <v>62.29753955298735</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.94914571053799</v>
+        <v>75.31838052371596</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.94914570323915</v>
+        <v>67.1234955833438</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.9491457183834</v>
+        <v>75.60687888924362</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.94914572217689</v>
+        <v>87.02577191819715</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.94914566778914</v>
+        <v>21.16102719955312</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.94914570942941</v>
+        <v>69.75744963991046</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.94914572069277</v>
+        <v>82.313103084921</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.94914551025221</v>
+        <v>11.63587102836286</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.9491455372968</v>
+        <v>11.61635220375745</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.94914554792527</v>
+        <v>17.9280505880883</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.94914551075526</v>
+        <v>-0.3817991104731142</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.94914554268889</v>
+        <v>7.292299850701145</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.94914555221513</v>
+        <v>9.945250290334915</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.94914551285092</v>
+        <v>3.879489357430053</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.94914554638029</v>
+        <v>21.64381561419928</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.94914555609307</v>
+        <v>23.56447872133524</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.94914555692103</v>
+        <v>11.60018643970273</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.9491455686972</v>
+        <v>16.84525627592203</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.94914557265744</v>
+        <v>16.87265421344296</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.94914553442561</v>
+        <v>7.913955746193885</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.94914556342379</v>
+        <v>7.73525959680914</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.94914557344587</v>
+        <v>13.84659370595072</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.94914556706949</v>
+        <v>11.90564447036195</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.94914560032327</v>
+        <v>17.77734397441494</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.94914561162979</v>
+        <v>22.71300367210364</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.94914556595291</v>
+        <v>0.20478107705339</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.94914560238368</v>
+        <v>6.17659199631105</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.94914561378625</v>
+        <v>11.10661964500469</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.94914557352439</v>
+        <v>-0.5675938571915964</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.94914561293193</v>
+        <v>16.87306175733775</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.9491455244026</v>
+        <v>12.53104290981529</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.94914555330405</v>
+        <v>20.37429704947207</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.94914556377825</v>
+        <v>23.20839944208705</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.94914552654238</v>
+        <v>1.015656719388982</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.94914556085175</v>
+        <v>21.11507841355059</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.94914557031352</v>
+        <v>21.99955026309897</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.94914552961817</v>
+        <v>4.187386838147315</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.94914556535607</v>
+        <v>35.25926143862824</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.94914557490315</v>
+        <v>34.36844893725387</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.94914557589506</v>
+        <v>33.49968111751065</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.94914558785435</v>
+        <v>38.56644950027493</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.94914559192211</v>
+        <v>39.46281511506175</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.94914555107565</v>
+        <v>14.51868492081787</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.94914558216021</v>
+        <v>28.78122353947758</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.94914559173426</v>
+        <v>31.24996882675792</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.94914558616091</v>
+        <v>13.23992462489236</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.94914562163858</v>
+        <v>27.71511679404588</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.94914563282297</v>
+        <v>31.34027717672347</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.94914558686115</v>
+        <v>3.233488297597599</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.94914562611894</v>
+        <v>24.4484006310872</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.94914563752571</v>
+        <v>29.01257128794013</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.94914559574377</v>
+        <v>4.081768320526262</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.94914563781474</v>
+        <v>37.95944266266741</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.94914552710872</v>
+        <v>6.203630400469631</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.94914555599789</v>
+        <v>14.43379333213919</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.94914556639001</v>
+        <v>19.31075546711229</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.94914552981126</v>
+        <v>-0.1988698554426058</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.94914556410741</v>
+        <v>18.24099118848808</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.94914557355</v>
+        <v>21.78095144697012</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.94914553293378</v>
+        <v>2.67024851931286</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.9491455686338</v>
+        <v>33.18181853089424</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.94914557810746</v>
+        <v>35.11280021496984</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.94914557907954</v>
+        <v>34.46909418611304</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.94914559091579</v>
+        <v>38.10512629516161</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.94914559500614</v>
+        <v>42.25567949944019</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.949145553969</v>
+        <v>6.253984269464933</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.94914558523413</v>
+        <v>22.36995252098007</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.94914559466736</v>
+        <v>27.08341635061738</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.94914558887755</v>
+        <v>7.119466651199453</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.94914562432873</v>
+        <v>21.63838082830155</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.94914563545015</v>
+        <v>28.30568773528339</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.94914559013458</v>
+        <v>0.4290367963145449</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.94914562938086</v>
+        <v>19.92857423301581</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.94914564079486</v>
+        <v>28.3927055621967</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.94914559904729</v>
+        <v>1.416564740961597</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.94914564108304</v>
+        <v>34.74844927192211</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.9491455181122</v>
+        <v>3.262297764078774</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.94914554578385</v>
+        <v>10.15843426725053</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.94914555639129</v>
+        <v>18.59933233020448</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.94914552036514</v>
+        <v>-0.1908681291967476</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.94914555309928</v>
+        <v>16.69596660046989</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.9491455628185</v>
+        <v>22.91185324802736</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.94914552277184</v>
+        <v>0.7774624155742593</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.94914555703733</v>
+        <v>28.87727510924149</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.94914556673695</v>
+        <v>34.19363319742644</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.94914556749049</v>
+        <v>27.46216462946208</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.94914557914986</v>
+        <v>31.47882303508855</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.94914558322888</v>
+        <v>36.41395485963581</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.9491455435823</v>
+        <v>3.426681458578617</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.94914557379442</v>
+        <v>17.35581342114689</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.9491455835988</v>
+        <v>26.71439958941863</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.94914557645481</v>
+        <v>3.628844685613789</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.94914561044714</v>
+        <v>17.37209818611965</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.94914562180712</v>
+        <v>25.98814392609913</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.94914557716413</v>
+        <v>-0.4595406273128653</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.94914561455046</v>
+        <v>15.51845578062768</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.94914562626962</v>
+        <v>25.57001177855982</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.94914558512212</v>
+        <v>-2.285022724628178</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.94914562543883</v>
+        <v>27.30236684118023</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.94914562413122</v>
+        <v>24.44188789588296</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.94914562041994</v>
+        <v>14.49176826233742</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.94914563548157</v>
+        <v>24.95558026577067</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.94914563991706</v>
+        <v>27.06041884719122</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.94914559118831</v>
+        <v>4.579695729326733</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.94914562878343</v>
+        <v>14.28793626370377</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.9491456396127</v>
+        <v>19.54760422432213</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.94914559942648</v>
+        <v>14.47186192440942</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.94914563345157</v>
+        <v>21.25843595627278</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.94914564500961</v>
+        <v>29.99881051972814</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.94914559949382</v>
+        <v>-3.360396989940821</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.94914563700132</v>
+        <v>6.347320781344376</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.94914564852793</v>
+        <v>13.12289894790297</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.94914560885497</v>
+        <v>-1.42309021913751</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.94914564926442</v>
+        <v>23.19539395539248</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.94914566044388</v>
+        <v>35.71168470460876</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.94914565673611</v>
+        <v>24.92488597835361</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.94914567098199</v>
+        <v>35.10962969529796</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.94914567450778</v>
+        <v>42.34442195305997</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.94914562506683</v>
+        <v>4.717907965112264</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.94914566262114</v>
+        <v>20.75376200036195</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.94914567357619</v>
+        <v>31.01012666943672</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.94914564886328</v>
+        <v>45.3663748655733</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.94914564456194</v>
+        <v>40.25456567116131</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.9491456596081</v>
+        <v>47.93657966747794</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.94914566412361</v>
+        <v>50.52950474702208</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.94914561284521</v>
+        <v>15.58097132683409</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.94914565295458</v>
+        <v>43.15572993645477</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.94914566333684</v>
+        <v>46.0586756874718</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.94914562002171</v>
+        <v>20.6028181417349</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.94914565634523</v>
+        <v>37.09438385773521</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.94914566767256</v>
+        <v>41.83704803357028</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.94914562197462</v>
+        <v>6.462549516200408</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.94914566239643</v>
+        <v>35.01913021222863</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.94914567386428</v>
+        <v>37.96291677878435</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.94914563268481</v>
+        <v>10.44779850786928</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.94914567586092</v>
+        <v>54.37015328846756</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.94914568675078</v>
+        <v>61.28940035156361</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.94914568245381</v>
+        <v>63.78858558860213</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.94914569668142</v>
+        <v>69.06670557997253</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.94914570024627</v>
+        <v>75.76783715843852</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.94914564838955</v>
+        <v>28.0463435997258</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.9491456884068</v>
+        <v>63.24997985849456</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.94914569877934</v>
+        <v>67.03137216580825</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.94914565206594</v>
+        <v>46.3652880689801</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.94914564760786</v>
+        <v>35.67168734304315</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.94914566247148</v>
+        <v>41.50614453140383</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.94914566699967</v>
+        <v>48.67717567845902</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.94914561569692</v>
+        <v>7.393787858192969</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.94914565596194</v>
+        <v>37.86441712370982</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.94914566619258</v>
+        <v>43.41918194060646</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.94914562280792</v>
+        <v>14.97621028943553</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.94914565915951</v>
+        <v>32.66944881299297</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.94914567038276</v>
+        <v>39.75916684380786</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.94914562534991</v>
+        <v>3.934113289430616</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.94914566580965</v>
+        <v>32.31834086823248</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.94914567724868</v>
+        <v>38.09406508049095</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.94914563608693</v>
+        <v>8.577196158948016</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.94914567927483</v>
+        <v>53.49167504549104</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.94914569005207</v>
+        <v>63.48159723465147</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.94914568561891</v>
+        <v>63.52074512061563</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.94914569967722</v>
+        <v>66.76072984031488</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.94914570324487</v>
+        <v>77.89705022354157</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.94914565131839</v>
+        <v>20.04568981710571</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.94914569155805</v>
+        <v>60.68929561462488</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.94914570173559</v>
+        <v>66.89299906066749</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.94914563668192</v>
+        <v>40.45709075574285</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.94914563226095</v>
+        <v>20.9408871344088</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.9491456470886</v>
+        <v>27.75620746801488</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.94914565163413</v>
+        <v>36.63587695884172</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.94914560182553</v>
+        <v>2.071507484007487</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.94914564078485</v>
+        <v>29.53992853354828</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.94914565137771</v>
+        <v>37.88778547503104</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.94914561019213</v>
+        <v>11.49424480241179</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.94914564512973</v>
+        <v>29.97185279803799</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.94914565662092</v>
+        <v>40.29607516221209</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.94914561220784</v>
+        <v>2.754886594852206</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.94914565084847</v>
+        <v>28.35815976125217</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.94914566258448</v>
+        <v>37.67756198013635</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.94914562201398</v>
+        <v>4.028829595907215</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.94914566350665</v>
+        <v>46.54150381352611</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.94914567457811</v>
+        <v>60.41012855542226</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.94914567024303</v>
+        <v>51.54446393874532</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.94914568427942</v>
+        <v>57.31348811774303</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.94914568787262</v>
+        <v>71.42631058867495</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.9491456371736</v>
+        <v>11.53371330688558</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.94914567628456</v>
+        <v>51.44004045733434</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.94914568685973</v>
+        <v>63.34267362354295</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.94914554251756</v>
+        <v>18.6805830003855</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.94914557212635</v>
+        <v>22.48244000745919</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.94914558380998</v>
+        <v>32.37016049002745</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.94914554575761</v>
+        <v>11.21753519153907</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.94914558082484</v>
+        <v>33.08488028822983</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.94914559108239</v>
+        <v>37.54006929756724</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.94914554974756</v>
+        <v>11.02698026078298</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.94914558669184</v>
+        <v>42.86034212336457</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.94914559719816</v>
+        <v>47.82498670467902</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.94914559449023</v>
+        <v>27.53131210204922</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.94914560712779</v>
+        <v>35.01339782906649</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.94914561144049</v>
+        <v>35.96422923373247</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.94914557033598</v>
+        <v>23.60054433485471</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.94914560098213</v>
+        <v>23.74632303142653</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.94914561220488</v>
+        <v>39.70690847460055</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.94914560202575</v>
+        <v>21.05811678701399</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.94914563790996</v>
+        <v>27.69147972204931</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.94914565006783</v>
+        <v>31.74456824679677</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.94914560309848</v>
+        <v>14.72865045482622</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.9491456422588</v>
+        <v>26.0754306652389</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.94914565427677</v>
+        <v>28.39416062619356</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.94914561213234</v>
+        <v>2.379853323110407</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.94914565483715</v>
+        <v>27.97623060096397</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.9491455594387</v>
+        <v>23.15080298618244</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.94914559106982</v>
+        <v>35.62263008369445</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.94914560252478</v>
+        <v>40.44538501310802</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.94914556444789</v>
+        <v>15.22499930488424</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.94914560205258</v>
+        <v>50.6078334207909</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.94914561220127</v>
+        <v>51.83580160931504</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.94914556964656</v>
+        <v>14.78827942474393</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.94914560899857</v>
+        <v>61.18598182375163</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.94914561927121</v>
+        <v>62.02521481434799</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.94914561675083</v>
+        <v>57.61861152928414</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.94914562957664</v>
+        <v>64.45117873097909</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.94914563396176</v>
+        <v>64.78365770332279</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.94914559008052</v>
+        <v>36.66064532549571</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.94914562293589</v>
+        <v>53.40261987014883</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.94914563358701</v>
+        <v>63.98117286442627</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.94914562418946</v>
+        <v>26.8213936820506</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.94914566245951</v>
+        <v>42.90226841909027</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.94914567438008</v>
+        <v>43.89152565547768</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.94914562713543</v>
+        <v>21.52812588970329</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.94914566927411</v>
+        <v>49.29959627033956</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.94914568121915</v>
+        <v>49.65741848674789</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.94914563773142</v>
+        <v>12.17172598822426</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.94914568330291</v>
+        <v>55.94955688541663</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.94914556202202</v>
+        <v>14.78907332881268</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.94914559364545</v>
+        <v>28.07680950502031</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.94914560499968</v>
+        <v>35.01207777851793</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.94914556762337</v>
+        <v>13.00489840890104</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.94914560520574</v>
+        <v>46.71860109416569</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.94914561533247</v>
+        <v>50.79834550835871</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.94914557286696</v>
+        <v>12.51362357671518</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.94914561217929</v>
+        <v>58.64830990453856</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.94914562236542</v>
+        <v>62.39302307649696</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.94914561986818</v>
+        <v>59.40598881241637</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.94914563257247</v>
+        <v>64.76163428542893</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.94914563697683</v>
+        <v>68.17268115623051</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.94914559287657</v>
+        <v>27.05831676719158</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.94914562593971</v>
+        <v>46.70381275327269</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.9491456364213</v>
+        <v>59.58613870832539</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.9491456268625</v>
+        <v>19.8350929854276</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.94914566511521</v>
+        <v>36.53942860658027</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.94914567695247</v>
+        <v>40.74489247644996</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.94914563038716</v>
+        <v>18.54548606377153</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.94914567251193</v>
+        <v>44.85952954635097</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.94914568446295</v>
+        <v>49.42378980626972</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.94914564102498</v>
+        <v>9.639802758665038</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.94914568657029</v>
+        <v>53.45773500059518</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.94914555104238</v>
+        <v>9.919372620464092</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.94914558135428</v>
+        <v>22.6351476209568</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.94914559298803</v>
+        <v>33.51193169511755</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.94914555619777</v>
+        <v>13.29409924927678</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.94914559213442</v>
+        <v>46.08058895077994</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.9491456025825</v>
+        <v>53.09758200173617</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.94914556054742</v>
+        <v>9.850111256448869</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.9491455983021</v>
+        <v>54.54944273089814</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.94914560878629</v>
+        <v>61.49362455976315</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.94914560603222</v>
+        <v>49.76728360798177</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.94914561857197</v>
+        <v>55.90884681373376</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.94914562303495</v>
+        <v>61.17955706391245</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.9491455803149</v>
+        <v>21.63869907264819</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.94914561229861</v>
+        <v>39.11869462027276</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.94914562325284</v>
+        <v>57.31537289795746</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.94914561237247</v>
+        <v>15.11193000135641</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.9491456490873</v>
+        <v>32.13779894856022</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.94914566126555</v>
+        <v>39.09483882703589</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.94914561540984</v>
+        <v>18.68893825227569</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.94914565561327</v>
+        <v>42.2774838558315</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.94914566794733</v>
+        <v>49.42976308968201</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.94914562490528</v>
+        <v>5.729000850046152</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.94914566862407</v>
+        <v>46.96220342866752</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.94914566660105</v>
+        <v>34.94511918372412</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.94914565950085</v>
+        <v>23.72675489328409</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.94914567574862</v>
+        <v>34.73335061686711</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.94914568041614</v>
+        <v>36.91312521391802</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.94914562835844</v>
+        <v>13.43392724910774</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.94914566805616</v>
+        <v>24.86276321612114</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.94914567952506</v>
+        <v>33.17092981576172</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.94914563272012</v>
+        <v>20.02604764163156</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.94914566924735</v>
+        <v>26.12178545813977</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.94914568159389</v>
+        <v>34.01931024573434</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.94914563475352</v>
+        <v>11.90922219296863</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.94914567490661</v>
+        <v>25.26647521993406</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.94914568696935</v>
+        <v>29.55322810990517</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.94914564531526</v>
+        <v>1.677624281995872</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.94914568887152</v>
+        <v>31.61592444719937</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.94914570062794</v>
+        <v>44.95133313054653</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.94914569349536</v>
+        <v>33.49567815025518</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.94914570876228</v>
+        <v>45.65169870181866</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.9491457124813</v>
+        <v>50.6961550231442</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.94914566021626</v>
+        <v>11.20448346381725</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.94914569938683</v>
+        <v>28.25740461208379</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.94914571120035</v>
+        <v>42.03402169738702</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.94914569480525</v>
+        <v>61.18839759181888</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.94914568708735</v>
+        <v>59.44396571249507</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.94914570328453</v>
+        <v>66.55846355184927</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.94914570796995</v>
+        <v>67.42237196196282</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.94914565333056</v>
+        <v>32.86494807614702</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.94914569564186</v>
+        <v>63.98647638913407</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.94914570651951</v>
+        <v>68.2854360317546</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.94914565617096</v>
+        <v>29.60402170501495</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.94914569515509</v>
+        <v>46.25955648409742</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.9491457071511</v>
+        <v>48.18911311929054</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.94914566012672</v>
+        <v>24.06921691786879</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.94914570333822</v>
+        <v>57.633829406456</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.94914571527786</v>
+        <v>56.28720152724316</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.94914567224079</v>
+        <v>16.86297368237098</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.94914571875386</v>
+        <v>68.11186195425677</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.94914573011596</v>
+        <v>73.68974116932657</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.94914572234703</v>
+        <v>80.79956667306651</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.94914573755842</v>
+        <v>86.65101237600049</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.94914574127674</v>
+        <v>89.07804961540516</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.94914568660268</v>
+        <v>41.28009244899381</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.94914572830019</v>
+        <v>79.63953599198973</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.94914573939056</v>
+        <v>84.88750621809358</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.94914569799105</v>
+        <v>63.08320037980154</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.9491456901358</v>
+        <v>56.03528789952354</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.94914570614155</v>
+        <v>61.37148447390811</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.94914571083642</v>
+        <v>66.62589142512773</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.94914565617841</v>
+        <v>24.70007301065864</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.94914569867085</v>
+        <v>60.11487158735386</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.94914570936597</v>
+        <v>67.02533862524501</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.94914565890051</v>
+        <v>23.4606617482417</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.94914569792452</v>
+        <v>41.80196381231585</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.94914570979247</v>
+        <v>46.21305406633711</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.94914566346938</v>
+        <v>21.69353334252935</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.94914570671507</v>
+        <v>55.18690583042054</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.94914571862576</v>
+        <v>56.90838112549915</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.94914567561797</v>
+        <v>15.4314164681197</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.94914572214957</v>
+        <v>68.18813587449226</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.94914573338031</v>
+        <v>76.88285766611102</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.94914572550269</v>
+        <v>82.15138728282088</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.94914574053041</v>
+        <v>85.88311421508918</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.94914574424886</v>
+        <v>92.31468340351552</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.94914568951843</v>
+        <v>33.68349808907439</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.94914573145363</v>
+        <v>78.54720870074169</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.94914574231474</v>
+        <v>86.1237055778073</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.94914568041082</v>
+        <v>58.47125541502255</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.94914567253347</v>
+        <v>38.676932361176</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.94914568853875</v>
+        <v>45.80868594218975</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.94914569335461</v>
+        <v>54.31950856352725</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.94914564012384</v>
+        <v>17.45803521546587</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.94914568133022</v>
+        <v>51.03918877707586</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.94914569249236</v>
+        <v>61.04307946477887</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.9491456443671</v>
+        <v>20.06313680166173</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.94914568190726</v>
+        <v>40.00078757780572</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.94914569412896</v>
+        <v>48.51555706333515</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.94914564848198</v>
+        <v>23.0471167309538</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.94914568986019</v>
+        <v>54.04220843851432</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.94914570211409</v>
+        <v>60.3837970548238</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.94914565954111</v>
+        <v>12.35577633991545</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.9491457042827</v>
+        <v>63.3852462454965</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.94914571588784</v>
+        <v>76.53494265807706</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.94914570810183</v>
+        <v>69.27135527954148</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.94914572312814</v>
+        <v>76.46168023975935</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.9491457269354</v>
+        <v>87.54034590573626</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.94914567334772</v>
+        <v>24.94445518502255</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.94914571418575</v>
+        <v>69.26139092990931</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.94914572552792</v>
+        <v>83.02545037919883</v>
       </c>
     </row>
   </sheetData>
